--- a/ewp-conflicts-data.xlsx
+++ b/ewp-conflicts-data.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
+  <workbookPr hidePivotFieldList="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drewnleonard/Documents/ewp-conflicts/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="432" yWindow="2481" windowWidth="19230" windowHeight="12207"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="EVENT DATA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="616">
   <si>
     <t>Somali National Movement is founded in 1981.  First reports of violent repression begin on February 20, 1982.  By 1984 torture and executions are widespread, although most sources put the onset of the SNM-Barre war in 1988.
 "During the past three weeks there has been fierce rioting in the north of the country. At least three military mutinies involving northern troops have been put down with difficulty by soldiers flown in from the south. According to a British aid agency in northern Somalia, southern troops are in control ''for the moment''. One aid worker said that at least 30 people were killed by the army during one day's rioting last week in the provincial capital, Hargeisa. Other eyewitnesses to whom your correspondent talked said that during the past five days there have been demonstrations in many northern towns and villages. The immediate cause of the troubles is the government's decision to prosecute 27 northern intellectuals and businessmen accused of subversion. The first of several riots in Hargeisa took place on February 20th when a crowd stormed the courtroom. But northerners' grievances go far deeper than this; they believe the government discriminates against them in an increasingly repressive way. Mr. Barre, a southerner, is accused of favouring southern tribes and of exploiting the north." (Economist, "The Horn of Africa trumpets war," March 6, 1982, p. 59).
@@ -30,9 +43,6 @@
     <t>MEDIAN</t>
   </si>
   <si>
-    <t>AVG</t>
-  </si>
-  <si>
     <t xml:space="preserve">Government kills civilians during effort to defeat Royalist insurgency.
 </t>
   </si>
@@ -59,9 +69,6 @@
     <t>Government kills civilians during effort to defeat leftist insurgencies.</t>
   </si>
   <si>
-    <t>Colombia (FARC, ELN, etc)</t>
-  </si>
-  <si>
     <t>Suspected supporters of Bougainville separatist insurgency</t>
   </si>
   <si>
@@ -111,15 +118,6 @@
 "The uprising began in the southern cities of Zubair and Basra on February 28-March 1 and by the end of the first week of March had spread to all major urban areas in the south.." (Human Rights Watch, " (Human Rights Watch, "The Mass Graves of al-Mahawil: The Truth Uncovered," Human Rights Watch Report, May 2003 (http://hrw.org/reports/2003/iraq0503/).</t>
   </si>
   <si>
-    <t>Georgia (Abkhazia)</t>
-  </si>
-  <si>
-    <t>Algeria (Islamists)</t>
-  </si>
-  <si>
-    <t>Tajikistan (United Tajik Opposition)</t>
-  </si>
-  <si>
     <t>Suspected supporters of United Tajik Opposition (UTO) insurgency, Gharmi and Pamiri, Islamists</t>
   </si>
   <si>
@@ -142,15 +140,9 @@
 NATO troops enter Kosovo on June 12, 1999</t>
   </si>
   <si>
-    <t>Democratic Republic of Congo/Zaire (Kabila/Tutsi vs. Mobutu)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Suspected supporters of Darfurian insurgents, ethnic "black Africans." </t>
   </si>
   <si>
-    <t>Congo-Brazzaville/Republic of Congo (Sassou regime)</t>
-  </si>
-  <si>
     <t>Suspected opponents of the Lissouba regime, Sassou-Nguesso and Kolelas supporters</t>
   </si>
   <si>
@@ -176,9 +168,6 @@
   </si>
   <si>
     <t>Suspected supporters of Pathet Lao communist insurgency.</t>
-  </si>
-  <si>
-    <t>Nicaragua (Somoza)</t>
   </si>
   <si>
     <t>suspected political opponents of Pinochet regime</t>
@@ -245,19 +234,10 @@
 EXCERPT FROM TRC REPORT  "On the basis of the evidence available to it, the primary finding of the Commission is that: The predominant portion of gross violations of human rights was committed by the former state through its security and law-enforcement agencies. Moreover, the South African state in the period from the late 1970's to early 1990's became involved in activities of a criminal nature when, amongst other things, it knowingly planned, undertook, condoned and covered up the commission of unlawful acts, including the extrajudicial killing of political opponents and others, inside and outside South Africa. In pursuit of these unlawful activities, the state acted in collusion with certain other political groupings, most notably the Inkatha Freedom Party (I.F.P.). . . . Certain members of the State Security Council (the state President, Minister of Defense, Minister of Law and Order, and heads of security forces) did foresee that the use of words such as "take out," "wipe out," "eradicate," and "eliminate" would result in the killing of political opponents." (New York Times, "Pretoria's Words: 'Extrajudicial Killing'" October 30, 1998, p. A14).</t>
   </si>
   <si>
-    <t>Ethiopia (Eritrea Civil War)</t>
-  </si>
-  <si>
     <t>Suspected supporters of UNITA insurgency</t>
   </si>
   <si>
-    <t>Ethiopia (Ogaden)</t>
-  </si>
-  <si>
     <t>"As early as September 1961 an armed movement in support of Eritrean independence had begun… Haile Selassie's army reacted ruthlessly to the rebellion - in one 4 month period, February-June 1967, 352 villages were destroyed and 946 civilians were killed, according to the ELF - but the guerrilla movement continued to prosper... The 1974 overthrow of Haile Selassie's ancient imperial dynasty... failed to change Ethiopia's attitude toward Eritrean autonomy... On may 28 [1991] the Tigreans [now allied to the Eritreans] ousted Mengistu and occupied Addis Ababa." (Clodfelter, p. 612)</t>
-  </si>
-  <si>
-    <t>Ethiopia (Political Repression by Dergue - Tigre Civil War)</t>
   </si>
   <si>
     <t>Government kills civilians during effort to suppress rebellion by Eritrean separatists.</t>
@@ -360,9 +340,6 @@
 "The constitution was overwhelmingly approved on August 11 and was followed by parliamentary elections in September and by the proclamation of independence on October 12, 1968.  The first president was Francisco Macías Nguema. After his election in 1971, he assumed wide powers and pushed through a constitution that named him president for life in July 1972. He assumed absolute personal powers in 1973... In 1975–77 there were many arrests and summary executions, which brought protests from world leaders and Amnesty International... Macías was overthrown in 1979 by his nephew, Lieutenant Colonel Teodoro Obiang Nguema Mbasogo, who led a Supreme Military Council to which he added some civilians in 1981. A less authoritarian constitution was instituted in 1982... Although another new constitution in 1991 provided for a multiparty state—leading to the first multiparty elections, held in 1993—there was no indication that Obiang would willingly give up power, and in the 1990s his regime was the subject of much international criticism for its oppressive nature." (Equatorial Guinea. (2006). In Encyclopædia Britannica. Retrieved June 19, 2006, from Encyclopædia Britannica Online: http://www.search.eb.com/eb/article-55167).</t>
   </si>
   <si>
-    <t>VICTIM GROUP(S)</t>
-  </si>
-  <si>
     <t>VICTIM GROUP(S) TYPE
 (ethnic/religious, political, other)</t>
   </si>
@@ -399,12 +376,6 @@
     <t>Suspected supporters of Kurdish insurgency.</t>
   </si>
   <si>
-    <t>Iraq (Shiites)</t>
-  </si>
-  <si>
-    <t>Iraq (political repression - Saddam)</t>
-  </si>
-  <si>
     <t>suspected supporters of Tutsi insurgents</t>
   </si>
   <si>
@@ -418,9 +389,6 @@
   </si>
   <si>
     <t>suspect supporters of communist party, Ethnic Chinese</t>
-  </si>
-  <si>
-    <t>Vietnam-South (Civil War)</t>
   </si>
   <si>
     <t>Communist government represses suspected political opponents.</t>
@@ -440,9 +408,6 @@
 "During the [1956] revolt some 100 people were killed."  (Grzegorz Ekiert, "Rebellious Poles: political crises and popular protest under state socialism, 1945-89," East European Politics and Societies, vol. 11, no. 2 (March 1997), p. 310)</t>
   </si>
   <si>
-    <t>Korea (Civil Violence in South - Cheju and Yosu)</t>
-  </si>
-  <si>
     <t>"The communists under Tito emerged from the war as sole rulers of Yugoslavia, without major Soviet assistance. King Petar surrendered his powers to a three-member regency in late 1944, and under Allied pressure Tito and Subasic agreed to merge their governments. On March 7, 1945, a single provisional Yugoslav government took office with Tito as prime minister...Living conditions, health care, education, and cultural life improved in the wake of the economic and political reforms. In the mid-1950s, the government redirected investment toward production of consumer goods, and foreign products became widely available. The regime also relaxed its religious restrictions, allowed for a degree of public criticism, curbed abuse of privileges by party officials, and reduced the powers of the secret police." (Library of Congress Country Study, Yugoslavia (former) (http://lcweb2.loc.gov/frd/cs/cshome.html)).(http://lcweb2.loc.gov/cgi-bin/query2/r?frd/cstdy:@field(DOCID+yu0033)</t>
   </si>
   <si>
@@ -476,88 +441,19 @@
 "In May 2001, Reed Brody and Olivier Bercault of Human Rights Watch discovered the files of Habré’s dreaded political police force, the DDS, piled knee-deep through several rooms in its abandoned N’Djamena headquarters. Among the tens of thousands of documents were daily lists of prisoners and deaths in detention, interrogation reports, surveillance reports, and death certificates. The files detail how Habré placed the DDS under his direct control, organized ethnic cleansing, and kept tight control over DDS operations. Human Rights Watch has copied the key documents onto CD-rom and entered them into a database. A preliminary analysis of the data by the Human Rights Data Analysis Group of the Benetech Initiative shows that a total of 12,321 different victims were mentioned in the documents, including the deaths in detention of 1,208 individuals." (Human Rights Watch, "The Case against Hissène Habré, an “African Pinochet” (May 2006) (http://www.hrw.org/english/docs/2005/09/30/chad11786.htm).</t>
   </si>
   <si>
-    <t>Russia-Chechnya</t>
-  </si>
-  <si>
-    <t>Afghanistan (Taliban vs. United Front)</t>
-  </si>
-  <si>
-    <t>Nepal (Civil War vs. Maoists)</t>
-  </si>
-  <si>
-    <t>Haiti (political repression - Cedras/FRAPH government)</t>
-  </si>
-  <si>
-    <t>Indonesia (Anti-Communist Massacres)</t>
-  </si>
-  <si>
-    <t>Syria (Muslim Brotherhood)</t>
-  </si>
-  <si>
-    <t>Mozambique (RENAMO)</t>
-  </si>
-  <si>
-    <t>Iran (post revolution repression/Kurds)</t>
-  </si>
-  <si>
-    <t>Peru (Shining Path)</t>
-  </si>
-  <si>
-    <t>India (Punjab-Sikh)</t>
-  </si>
-  <si>
-    <t>Sudan (Darfur)</t>
-  </si>
-  <si>
-    <t>Bangladesh (Chittagong Hill Insurgency)</t>
-  </si>
-  <si>
-    <t>Uganda (NRA vs. Holy Spirit-UPDA-LRA)</t>
-  </si>
-  <si>
-    <t>Indonesia (Aceh)</t>
-  </si>
-  <si>
-    <t>Indonesia (East Timor)</t>
-  </si>
-  <si>
-    <t>Liberia (Civil War)</t>
-  </si>
-  <si>
-    <t>India-Kashmir</t>
-  </si>
-  <si>
-    <t>Turkey (Kurds)</t>
-  </si>
-  <si>
-    <t>Sri Lanka (JVP I)</t>
-  </si>
-  <si>
     <t>China-Taiwan</t>
   </si>
   <si>
-    <t>Colombia (La Violencia)</t>
-  </si>
-  <si>
-    <t>Philippines (Huks)</t>
-  </si>
-  <si>
     <t>start_day</t>
   </si>
   <si>
     <t>start_month</t>
   </si>
   <si>
-    <t>start_year</t>
-  </si>
-  <si>
     <t>end_day</t>
   </si>
   <si>
     <t>end_month</t>
-  </si>
-  <si>
-    <t>end_year</t>
   </si>
   <si>
     <t>CIVILIAN FATALITES
@@ -606,48 +502,18 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Sudan (Civil War)</t>
-  </si>
-  <si>
     <t>"Government dominated by northern Muslim-Arabs uses indiscriminate violence to suppress mostly non-Muslim Africans who support a secessionist movement in the south." (Harff)</t>
   </si>
   <si>
-    <t>China (Tibet)</t>
-  </si>
-  <si>
     <t>"Army and security forces suppress counter-revolutionary elements of society, including Tibetan Buddhists, landowners, and supporters of former Chiang Kai-shek regime." (Harff)</t>
   </si>
   <si>
     <t>In the wake of independence from France, Algerian militants attack Europeans and Muslim civilians who collaborated with French colonial authorities. (Harff)</t>
   </si>
   <si>
-    <t>Algeria (post independence retribution)</t>
-  </si>
-  <si>
-    <t>Iraq (Kurds)</t>
-  </si>
-  <si>
     <t>Local Hutu officials orchestrate vengeance attacks against Tutsis following cross-border incursions by Tutsi rebels.  (Harff)</t>
   </si>
   <si>
-    <t>Nigeria (Biafra)</t>
-  </si>
-  <si>
-    <t>Pakistan (Bangladesh)</t>
-  </si>
-  <si>
-    <t>Uganda (Amin)</t>
-  </si>
-  <si>
-    <t>Philippines (Moro Civil War)</t>
-  </si>
-  <si>
-    <t>Pakistan (Baluchistan)</t>
-  </si>
-  <si>
-    <t>Angola (Civil War)</t>
-  </si>
-  <si>
     <t>COW CCODE</t>
   </si>
   <si>
@@ -727,12 +593,6 @@
   </si>
   <si>
     <t>START/END DATE NOTES</t>
-  </si>
-  <si>
-    <t>COUNTRY/EVENT NAME</t>
-  </si>
-  <si>
-    <t>Poland vs. UPA/OUN (Ukrainian nationalists)</t>
   </si>
   <si>
     <r>
@@ -751,120 +611,18 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> militias and encourages them to terrorize suspected supporters of separatist rebels; victims groups include Fur, Zaghawa, Masaleit, and other non-Arab peoples of the Darfur region. (Harff)</t>
     </r>
   </si>
   <si>
-    <t>Indonesia (Darul Islam)</t>
-  </si>
-  <si>
-    <t>Dominican Republic (civil war)</t>
-  </si>
-  <si>
-    <t>China (Communist)</t>
-  </si>
-  <si>
-    <t>Cambodia (Civil War)</t>
-  </si>
-  <si>
-    <t>Yemen-S/Peoples R</t>
-  </si>
-  <si>
-    <t>Cambodia (Khmer Rouge)</t>
-  </si>
-  <si>
-    <t>Vietnam (post war political repression by communist government)</t>
-  </si>
-  <si>
     <t>Vietnam-North (repression by communist government)</t>
   </si>
   <si>
-    <t>Poland (expulsion of Germans)</t>
-  </si>
-  <si>
-    <t>Czechoslovakia (expulsion of Germans)</t>
-  </si>
-  <si>
-    <t>Yugoslavia  (expulsion of Germans)</t>
-  </si>
-  <si>
-    <t>Korea-North (political repression)</t>
-  </si>
-  <si>
-    <t>Bulgaria (political repression)</t>
-  </si>
-  <si>
-    <t>Romania (political repression)</t>
-  </si>
-  <si>
-    <t>Haiti (political repression - Duvalier government)</t>
-  </si>
-  <si>
-    <t>Uganda (Civil War)</t>
-  </si>
-  <si>
-    <t>Sri Lanka (Tamil)</t>
-  </si>
-  <si>
-    <t>Somalia (Barre vs. SNM-Isaaqs and others)</t>
-  </si>
-  <si>
-    <t>Rwanda (Hutu vs. Tutsi)</t>
-  </si>
-  <si>
-    <t>Malawi (political repression)</t>
-  </si>
-  <si>
-    <t>Burma/Myanmar (political repression)</t>
-  </si>
-  <si>
-    <t>Papua New Guinea (Bougainville)</t>
-  </si>
-  <si>
-    <t>Nigeria (Kano/Anti-Muslim)</t>
-  </si>
-  <si>
-    <t>Jordan (PLO)</t>
-  </si>
-  <si>
     <t>Political repression by Castro</t>
   </si>
   <si>
-    <t>Cuba (Castro - political repression)</t>
-  </si>
-  <si>
-    <t>CIVFAT
-LOW</t>
-  </si>
-  <si>
-    <t>CIVFAT
-HIGH</t>
-  </si>
-  <si>
-    <t>Zanzibar (political repression)</t>
-  </si>
-  <si>
-    <t>Iran (political repression - Reza Shah Pahlevi)</t>
-  </si>
-  <si>
-    <t>Hungary (political repression)</t>
-  </si>
-  <si>
-    <t>Poland (political repression - communist government)</t>
-  </si>
-  <si>
-    <t>Albania (political repression - communist government)</t>
-  </si>
-  <si>
-    <t>Yugoslavia (political repression)</t>
-  </si>
-  <si>
     <t>Repression and retribution against Croatians, former Chetniks, and other suspected opponents of the communist regime after WWII.</t>
-  </si>
-  <si>
-    <t>Czechoslovakia (political repression)</t>
   </si>
   <si>
     <t>LOW: 6 million in purges/executions/Cultural Revolution + 20 million camp dead + 5 million in GLF (estimate 25% of Margolin low estimate were intentional) = 31,000,000
@@ -937,25 +695,10 @@
     <t>Polish government kills civilians during effort to defeat Ukrainian separatists insurgency.</t>
   </si>
   <si>
-    <t>Laos (Civil War-Communists)</t>
-  </si>
-  <si>
     <t>Political and Ethnic</t>
   </si>
   <si>
-    <t>Guinea (Sekou Toure - political repression)</t>
-  </si>
-  <si>
-    <t>Laos (Communist Repression/Hmong Civil War)</t>
-  </si>
-  <si>
     <t>suspected supporters of Darul Islam insurgency</t>
-  </si>
-  <si>
-    <t>Iraq (Mosul Uprising)</t>
-  </si>
-  <si>
-    <t>Congo (Kasai)</t>
   </si>
   <si>
     <t>"Sekarmadji Maridjan Kartosuwirjo started an indigenous Islamic rebellion on Aug. 7, 1949 -- just when Indonesia was gaining independence from the Dutch colonial rule... the ensuing thirteen-year rebellion, which was finally crushed in 1962." (Jakarta Post, "SCHOOLED FOR A HOUSE OF ISLAM," August 27, 2005, p. 6).
@@ -994,12 +737,6 @@
   </si>
   <si>
     <t>Government kills civilians during effort to suppress rebellion by Shiites.</t>
-  </si>
-  <si>
-    <t>Zimbabwe/Rhodesia (Civil War)</t>
-  </si>
-  <si>
-    <t>Rwanda (Tutsi vs. Hutu)</t>
   </si>
   <si>
     <t>"The pursuit of Nigerian unity killed between 500,000 and 1,000,000 Nigerians... My figure is a consensus of informed opinion and I personally feel that something around 600,000 -- for total deaths -- may be nearest the mark." (John de St. Jorre, The Brothers' War: Biafra and Nigeria (Boston: Houghton Mifflin, 1972), p. 412).
@@ -1035,18 +772,12 @@
     <t>Government kills civilians during effort to defeat insurgency by multiple competing rebel groups, including the Taliban.</t>
   </si>
   <si>
-    <t>Afghanistan (Rabbani/Massoud vs. Taliban, et al.)</t>
-  </si>
-  <si>
     <t>Suspected supporters of Niger River Delta rebellions.</t>
   </si>
   <si>
     <t>Georgian government kills civilians during effort to defeat Abkhaz insurgency.</t>
   </si>
   <si>
-    <t>Nigeria (Niger Delta/Ogoni)</t>
-  </si>
-  <si>
     <t>"On August 14, 1992, a fratricidal war broke out on the resort beaches of Abkhazia, a small territory located on the Black Sea coast of the newly independent Republic of Georgia. A sixteen-month conflict ensued between, on the one hand, Abkhaz forces aided by local civilians as well as fighters from other countries, primarily neighboring areas of the Russian Federation, and, on the other hand, the central government of Georgia, in the form of National Guard, paramilitaries and volunteers. The Abkhaz fought for expanded autonomy and ultimately full independence from Georgia; the Georgian government sought to maintain control over its territory. Intensive battles raged on land, air and sea. Several thousand were killed and many more wounded on both sides...Following the first round of peace negotiations on December 1, 1993, the Georgian and Abkhaz sides signed an Agreement of Understanding" ((Human Rights Watch, GEORGIA/ABKHAZIA: VIOLATIONS OF THE LAWS OF WAR AND RUSSIA'S ROLE IN THE CONFLICT, Vol. 7, No. 7, (March 1995) &lt;http://www.hrw.org/reports/1995/Georgia2.htm&gt;).</t>
   </si>
   <si>
@@ -1080,12 +811,6 @@
     <t>Government kills civilians during effort to defeat United Tajik Opposition (UTO) insurgency.</t>
   </si>
   <si>
-    <t>Yugoslavia (Bosnia)</t>
-  </si>
-  <si>
-    <t>Yugoslavia (Croatian Civil War)</t>
-  </si>
-  <si>
     <t>Suspected supporters of Armenian separatist insurgency.</t>
   </si>
   <si>
@@ -1125,9 +850,6 @@
     <t>Government kills civilians during effort to defeat rightist Contra insurgency.</t>
   </si>
   <si>
-    <t>Nicaragua (Contras)</t>
-  </si>
-  <si>
     <t>Government kills civilians during effort to crush South African backed RENAMO insurgency.</t>
   </si>
   <si>
@@ -1162,9 +884,6 @@
   </si>
   <si>
     <t>Karens, Mons, and Shan</t>
-  </si>
-  <si>
-    <t>Burma/Myanmar (Communist Insurgency/Political Repression)</t>
   </si>
   <si>
     <t>Government kills civilians during effort to defeat communist CPB (Communist Party of Burma) insurgency</t>
@@ -1215,37 +934,22 @@
     <t>Taliban government kills civilians during effort to defeat insurgency by Northern Alliance and crush domestic political opposition.</t>
   </si>
   <si>
-    <t>Burma/Myanmar (Ethnic Separatists - Karens, etc)</t>
-  </si>
-  <si>
     <t>Government of Idriss Deby represses political opposition and supporters of various southern-based insurgent movements.</t>
   </si>
   <si>
-    <t>Chad (political repression/civil war - Habre regime)</t>
-  </si>
-  <si>
     <t>Government of Hissen Habre represses political opposition and supporters of Libyan backed rebellion.</t>
   </si>
   <si>
-    <t>Chad (political repression/civil war - Deby regime)</t>
-  </si>
-  <si>
     <t>Government kills civilians during effort to defeat West Papuan secessionist insurgency.</t>
   </si>
   <si>
     <t>Suspected supporters of West Papuan secessionist insurgency.</t>
   </si>
   <si>
-    <t>Congo (CNL/Simbas)</t>
-  </si>
-  <si>
     <t>Suspected supporters of Conseil National de Libération/Simba insurgency</t>
   </si>
   <si>
     <t>Government kills civilians during effort to defeat Conseil National de Libération/Simba insurgency</t>
-  </si>
-  <si>
-    <t>Indonesia (West Papua - OPM)</t>
   </si>
   <si>
     <t>Suspected supporters of Baluchi insurgency</t>
@@ -2039,9 +1743,6 @@
 20,000 total "dead" in 1989 "with most of the deaths occurring in the south [JVP area].  A few thousand died in fighting in the north of the country [where Indian peacekeepers and government fought against Tamils]... JVP guerrilla killed thousands in ruthless assassinations and attacks but.. most of the killing.. has been done by roving government death squads made up of off duty policemen and soldiers" (Washington Post, 03-28-1990, p. A1).  Suggests about 10,000 to 15,000 killed by government (most civilians) in battle against JVP in 1989.</t>
   </si>
   <si>
-    <t>Sri Lanka (JVP II)</t>
-  </si>
-  <si>
     <t>"More than 1,033 civilians died in last year's uprising, most of them in the three days of shooting and terror between the flight of dictator Nicolae Ceausescu from Bucharest on Dec. 22 and his execution on Christmas Day." (Washington Post, "Bloodiest Coup Leaves Questions," December 26, 1990, p. A1).
 "More than 1,000 people, mostly civilians, died in largely indiscriminate shooting, but virtually no one has been prosecuted despite the new Government's repeated promises to undertake a complete investigation. At the time it was believed that the shooting was done by members of the Securitate opposing the uprising and elements of the armed forces supporting it. But to this day it is still not fully clear who was attacking whom, and Romanians are beginning to despair of ever receiving any clear explanation of an event in which millions of people took part." (New York Times, "Uneasy Romania Asks: Where Are Spies Now?" February 13, 1991, p. A4).
 "Initial reports of up to 80,000 dead were soon discounted as vastly exaggerated.  By years end 1,039 victims of the fighting had been positively identified." (Clodfelter, p. 604).</t>
@@ -2246,9 +1947,6 @@
     <t>"The [Muslim" Brotherhood's] first major strike against the Alawite government occurred on June 16, 1979… The violence culminated in a bloody three week rebellion in the city of Hama… Unrest continued for several years." (Clodfelter, p. 650).
 "Domestically, Assad's supremacy remained unassailable. He brooked no opposition and his control of the Baath Party and the military and security organizations was complete. All political activities continued to be closely monitored by the party and a multiplicity of intelligence and security forces... The regime did not rely primarily on coercion, however; the Baath Party sought, with mixed results, to evolve into a truly mass-based organization... In February 1978, Assad was reelected for a second 7-year term (1978-85). However, his reelection coincided with the beginning of a period of domestic unrest... The most important opposition groups during this period were Sunni Muslim organizations, whose membership was drawn from urban Sunni youth. The largest and most militant of these groups was the Muslim Brotherhood... In the spring of 1979, the Muslim Brotherhood claimed credit for a series of attacks on persons, usually Alawis, and government and military installations. The most serious attacks occurred in June 1979 when Muslim Brotherhood gunmen killed 50 Alawi cadets at the military academy in Aleppo... After this incident, the government resolved to crush the opposition and did so ruthlessly... In February 1982, the Muslim Brotherhood ambushed government forces who were searching for dissidents in Hamah. Several thousand Syrian troops, supported by armor and artillery, moved into the city and crushed the insurgents during two weeks of bloodshed. When the fighting was over, perhaps as many as 10,000 to 25,000 people lay dead, including an estimated 1,000 soldiers...On the third anniversary of the Hamah rebellion in February 1985, the government announced an amnesty for Muslim Brotherhood members. About 500 of the Muslim Brethren were released from prison, and those who had fled abroad were encouraged to return to Syria. As a result of the amnesty many members of At Tali'a al Muqatila [the military wing of the Muslim Brotherhood] surrendered to government authorities." (Library of Congress Country Study: Syria (http://lcweb2.loc.gov/cgi-bin/query/r?frd/cstdy:@field(DOCID+sy0027)).
 "In June of that same year [1980]... a group of Brotherhood assassins launched two hand grenades at [Assad]... The next morning Assad's soldiers entered the prison at Tadmur and murdered between 600 and 1,000 Brotherhood prisoners. By 1981 street executions of people suspected of ties to the Brotherhood became common in Hama." (Allison Stark Draper, A Historical Atlas of Syria (New York: Rosen Group Publishing, 2003), p. 55)</t>
-  </si>
-  <si>
-    <t>duration (years)</t>
   </si>
   <si>
     <t>NO CLEAR END DATE, BUT "DOI MOI" REFORMS OF 1986 ALMOST CERTAINLY MARK END OF WIDESPREAD KILLING.
@@ -2353,12 +2051,6 @@
 "Yoweri Museveni formally claimed the presidency on January 29, 1986...From 1986 to 1990, the Museveni regime tried to end various insurgencies and to establish control over the army. Despite repeated government claims that the NRA had defeated the UNLA and other rebel groups, insurgent activity continued, especially in the northern, eastern, and western regions. In April 1988, 3,000 former Uganda People's Army (UPA) fighters and members of several other small rebel groups accepted a government amnesty by surrendering and declaring their support for Museveni's regime. In June 1988, the president concluded a peace agreement with Uganda People's Democratic Army (UPDA) commander Lieutenant Colonel John Angelo Okello. Although the NRA subsequently integrated many UPA and UPDA personnel into its ranks, thousands of others rejected the peace accord and continued to fight against the NRA" (Library of Congress Country Study: Uganda (http://lcweb2.loc.gov/cgi-bin/query2/r?frd/cstdy:@field(DOCID+ug0023)).</t>
   </si>
   <si>
-    <t>Syria (Arab Spring Crackdown)</t>
-  </si>
-  <si>
-    <t>Côte d'Ivoire (2010-11 civil war)</t>
-  </si>
-  <si>
     <t>Government kills suspected supporters of Ouattara</t>
   </si>
   <si>
@@ -2409,9 +2101,6 @@
 "On December 11, 1994, Russian troops invaded Chechnya. Overcoming stiff resistance, the Russian forces took the capital city of Grozny (Dzhokhar) in March 1995. Chechen guerrilla resistance continued, however, and a series of cease-fires were negotiated and violated. In 1996 Dudayev was killed during Russian shelling, and the following year former guerrilla leader Aslan Maskhadov was elected president. Russian President Boris Yeltsin and Maskhadov signed a provisional peace treaty in May 1997 but left the question of Chechnya's eventual status undetermined. Russian troops soon withdrew from the territory but returned in late 1999; heavy fighting resumed." (Chechnya. (2006). In Encyclopædia Britannica. Retrieved July 11, 2006, from Encyclopædia Britannica Online: http://www.search.eb.com/eb/article-9022731).</t>
   </si>
   <si>
-    <t>Sudan/North (Nuba, Abyei, Kordofan, Blue Nile)</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -2429,9 +2118,6 @@
   </si>
   <si>
     <t>suspected opponents of Gaddafi regime</t>
-  </si>
-  <si>
-    <t>Libya Civil War</t>
   </si>
   <si>
     <t>Government kills suspected supporters of rebels</t>
@@ -2531,9 +2217,6 @@
 "An unknown number of Hmong and other minorities have remained in the jungle to this day, hiding from the Lao military. Some groups have continued armed resistance to the Lao government" (Amnesty International, "Laos: Massacre of unarmed Hmong women and children," Amnesty International Public Statement, 4 May 2006 (AI Index: ASA 26/002/2006).</t>
   </si>
   <si>
-    <t>South Sudan (Dinka/Nuer Conflict)</t>
-  </si>
-  <si>
     <t>Government forces loyal to President Salva Kiir (mostly Dinka) kill supporters of Vice President Riek Machar and members of Nuer ethnic group.</t>
   </si>
   <si>
@@ -2541,9 +2224,6 @@
   </si>
   <si>
     <t>Government kills suspected SRF/SPLA/SPLM supporters.</t>
-  </si>
-  <si>
-    <t>Philippines (New People's Army and other political opposition)</t>
   </si>
   <si>
     <t>Violence has declined markedly since the election of Benigno Aquino III on June 30, 2010.
@@ -2571,9 +2251,6 @@
 60,000 to 200,000 "victims of politicide and genocide" from June 1978 - December 1996 (Barbara Harff, "No Lessons Learned from the Holocaust? Assessing Risks of Genocide and Political Mass Murder since 1955," American Political Science Review, vol. 97, no. 1 (February 2003), p. 60). DOES NOT INCLUDE DEATHS FROM 1954-1978.</t>
   </si>
   <si>
-    <t>Guatemala (Civil War and repression)</t>
-  </si>
-  <si>
     <t>"The current strife between Boko Haram - an extreme Salafist group with roots in the northeastern city of Maiduguri - and the Nigerian government was sparked in July 2009, when tensions between the sect and authorities reached a breaking point. An uncomfortable modus vivendi in the northeast collapsed when Nigerian security forces staged an offensive that killed at least 700 people across several states. The action included the extra-judicial killing of the group's leader, Mohammed Yusuf, and deadly, often indiscriminate, attacks on other buildings and settlements associated with Boko Haram.” (Washington Post Monkey Cage Blog, October 6, 2014: http://www.washingtonpost.com/blogs/monkey-cage/wp/2014/10/06/the-boko-haram-insurgency-by-the-numbers/)</t>
   </si>
   <si>
@@ -2590,9 +2267,6 @@
   </si>
   <si>
     <t>Suspected Boko Haram supporters.</t>
-  </si>
-  <si>
-    <t>Egypt (supression of Muslim Brotherhood/Rabba Massacre)</t>
   </si>
   <si>
     <t xml:space="preserve">"In the months following the ouster of President Morsy, police used excessive lethal force, killing over 1,300 persons at protests, and arrested over 3,500 Brotherhood supporters...." (HRW World Report 2014)
@@ -2615,9 +2289,6 @@
 "Some 15,000 to 25,000 people were killed." Walker also cites an estimate of 17,000 dead (with 11,000 Azeris and 6,000 Armenians). Edward Walker, No Peace, No War in the Caucasuses (Cambridge: Strengthening Democratic Institutions Project, JFK School of Government, 1998), p. 29).
 "Since 1991 the war has claimed more than 20,000 lives on both sides." (HRATCH TCHILINGIRIAN, "Nagorno Karabagh: transition and the elite," Central Asian Survey (1999) 18(4), p. 445).
 "An estimated 22,000 Karabakhis and an unknown number of Azerbaijanis and their allies died in the conflict." (Jane’s Intelligence Review, September 1, 1999).</t>
-  </si>
-  <si>
-    <t>Azerbaijan (Armenians in Nagorno-Karabakh)</t>
   </si>
   <si>
     <t>Conflict begins [by rule] when Azerbaijan became independent on August 30, 1991.  Mass killing violence actually began on February 27, 1988. “The most brutal of these events was the anti-Armenian pogrom in Sumgait, Azerbaijan [February 27, 1988], which took the lives of thirty-two Armenians, wounded hundreds more, and intensified the fears of ethnic Armenians living in other parts of Azerbaijan.” (https://www.hrw.org/sites/default/files/reports/AZER%20Conflict%20in%20N-K%20Dec94.pdf)
@@ -2661,13 +2332,9 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> "To execute a campaign against Tutsi effectively took practice. Before the grim background of war, economic distress, violent political competition, insecurity and impunity, and to the accompaniment of virulent propaganda, radicals staged the practice for the catastrophe to come. The rehearsals took place in more than a dozen communities, the most important being the commune of Kibilira in October 1990, March 1992, December 1992, and January 1993; in several communes in northwestern Rwanda, including Mukingo, Kinigi, Gaseke, Giciye, Karago, and Mutura in January and February 1991; in the region known as Bugesera, commune Kanzenze, in March 1992; in several communes of Kibuye in August 1992; and again in the northwest in December 1992 and January 1993.57 These attacks slaughtered some 2,000 Tutsi and dozens of Hutu and established patterns for the genocide of 1994."https://www.hrw.org/reports/1999/rwanda/Geno1-3-10.htm#P578_223328</t>
     </r>
-  </si>
-  <si>
-    <t>Democratic Republic of Congo (Kabilla vs opponents)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2692,9 +2359,6 @@
 "There had been violence before, but by late July 2003, it had assumed a completely new scale and exploded.  New patterns of repression emerged." (Gerard Prunier, "Darfur: The Ambiguous Genocide (Ithaca: Cornell University Press, 2005), p. 99).</t>
   </si>
   <si>
-    <t>Nigeria (suppression of Boko Haram)</t>
-  </si>
-  <si>
     <t>Disputed election was on November 28, 2010, but violence did not begin until early December.  Gbagbo was captured on April 11, 2011.
 "On Saturday, December 4, Ouattara supporters took to the streets in Treichville and Koumassi, pro-Ouattara neighborhoods in southern Abidjan, to celebrate the UN’s endorsement of Ouattara’s victory and to protest Gbagbo’s decision not to relinquish power. The security forces swiftly suppressed them, leading to at least four deaths, including of three boys, as well as dozens of wounded...None of the victims nor any of the
 demonstrators around them appeared to have engaged in aggressive behavior toward the security forces that would have dictated a response of even minimal force." (https://www.hrw.org/sites/default/files/reports/cdi1011WebUpload.pdf)
@@ -2717,9 +2381,6 @@
     <t>EVENT IS ONGOING
 “Fighting erupted in the headquarters of the South Sudan army’s presidential guard at around 10:30 p.m. on December 15, hours after a meeting of South Sudan’s leading political party, Sudan People’s Liberation Movement (SPLM). The meeting was marked by extremely high tensions between President Salva Kiir, who is of Dinka ethnicity, and former Vice President Riek Machar, who is of Nuer ethnicity. Kiir had dismissed Machar, a senior SPLM member, as vice president in July and fired his entire cabinet… In Juba, clashes between members of the presidential guard of the Sudan People’s Liberation Army (SPLA) erupted during the night of December 15, 2013… much of the violence in the capital the following week was targeted attacks by Dinka members of South Sudan’s armed forces, both the police and army, against Nuer males, including civilians, Human Rights Watch concluded after interviewing more than 150 victims and witnesses.” (Human Rights Watch, http://www.hrw.org/news/2014/01/16/south-sudan-ethnic-targeting-widespread-killings).
 "South Sudan’s conflict began in December 2013. It was triggered by a gun battle in Juba between soldiers loyal to President Salva Kiir and those loyal to Riek Machar, the former vice president and now leader of the Sudan People’s Liberation Movement/Army-In Opposition (otherwise known as the “IO”). Since its first 24 hours, the conflict has been marked by horrific attacks on civilians." https://www.hrw.org/sites/default/files/report_pdf/southsudan0715_web_0.pdf)</t>
-  </si>
-  <si>
-    <t>Serbia (Kosovo)</t>
   </si>
   <si>
     <t>"Immediately after September 9, 1944, when the Popular Patriotic Front seized power... a police force and security department controlled by the communist party moved into action." (Karel Bartosek, “Central and Southeastern Europe,” in Stéphane Courtois, et. al, The Black Book of Communism: Crimes, Terror, Repression (Cambridge: Harvard University Press, 1999), p. 395.)
@@ -2807,9 +2468,6 @@
   </si>
   <si>
     <t>Shiite militias (along with some Yazidi and Kurdish armed groups) allied with the government of Iraq kill Sunnis and suspected supporters of ISIS, primarily in western Iraq.</t>
-  </si>
-  <si>
-    <t>Iraq (Shiite militias vs. Sunnis)</t>
   </si>
   <si>
     <t xml:space="preserve">"Government-backed militias have been kidnapping and killing Sunni civilians throughout Iraq’s Baghdad, Diyala, and Hilla provinces over the past five months [sugesting killing began on March 31, 2014] The killings and abductions mark a serious escalation in sectarian violence at a time when the armed conflict between government forces and Sunni insurgents is intensifying...In March, media reports said that Prime Minister al-Maliki had met with senior security advisers and told them that he would form a new security force consisting of three militias to police Baghdad – Asa’ib, Kita’ib Hezbollah, and the Badr Brigades, which is run by Transport Minister Hadi al-Ameri. A government official who provides national security advice to the prime minister’s office told Human Rights Watch in June that while Asa’ib fighters “take orders” from the militia’s military leader, Qais al-Khalazy, “ultimately they’re loyal to Maliki, who gives Qais orders....Sectarian killings have markedly increased since ISIS took over Mosul on June 10.” (https://www.hrw.org/news/2014/07/31/iraq-pro-government-militias-trail-death)
@@ -2839,18 +2497,300 @@
     <t>ethnic</t>
   </si>
   <si>
-    <t>Congo-Brazzaville/Republic of Congo (Lissouba regime)</t>
-  </si>
-  <si>
-    <t>Liberia (Civil War- LURD and MODEL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Assuming between 50 and 75 percent of total are civilians killed by government.
 "Estimates of the numbers killed in South Sudan are notoriously vague. The UN secretary general, Ban Ki-moon, said on Monday that "tens of thousands of South Sudanese have been killed". The International Crisis Group estimates that at least 50,000 people have died, but some analysts believe it could be twice that figure." (Guardian, December 15, 2014)
 “In the days after ethnic killings exploded in South Sudan in December, an estimated 10,000 people died in the fighting. The atrocities were triggered by a political struggle in the governing Sudan People's Liberation Movement between President Salva Kiir and his rival and former deputy, Riek Machar, with both sides responsible for massacres, according to diplomats, witnesses and human rights organizations… In one incident, government forces deliberately fired shots into a room full of Lou Nuer men being detained in a police building, killing more than 200 of them, according to a survivor, Mayang Yian.” (Los Angeles Times, March 11, 2014)
 “Both sides are accused of human rights abuses, including summary killings along ethnic lines. As many as 10,000 people are thought to have been killed and half a million have fled.” (Times, January 23, 2014)
 “Both pro and antigovernment armed forces are responsible for serious abuses that may amount to war crimes in two key oil hubs in South Sudan during recent fighting, Human Rights Watch said today… armed forces from both sides have extensively looted and destroyed civilian property, including desperately needed aid facilities, targeted civilians, and carried out extrajudicial executions, often based on ethnicity.” (Human Rights Watch, https://www.hrw.org/news/2014/02/26/south-sudan-war-crimes-both-sides)
 </t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>Political Repression</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Political Repression, Communist Government</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yugoslavia </t>
+  </si>
+  <si>
+    <t>Expulsion of Germans</t>
+  </si>
+  <si>
+    <t>Yugoslavia</t>
+  </si>
+  <si>
+    <t>Czechoslovakia</t>
+  </si>
+  <si>
+    <t>Poland vs. UPA/OUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ukrainian Nationalists</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Huks</t>
+  </si>
+  <si>
+    <t>MISSING</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Political Repression</t>
+  </si>
+  <si>
+    <t>Communist Insurgency/Political Repression</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Civil Violence in South - Cheju and Yosu</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>La Violencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ethnic Separatists</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Darul Islam</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Communist</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Civil War and Repression</t>
+  </si>
+  <si>
+    <t>Civil War</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Tibet</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Mosul Uprising</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Civil War, Communists</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Kasai</t>
+  </si>
+  <si>
+    <t>Kurds</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Post Independence Retribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Political Repression </t>
+  </si>
+  <si>
+    <t>Zanzibar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Anti-Communist Massacres</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Biafra</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Communist Repression, Civil War</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Insurgency</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Political Repression, Civil War</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Democratic Republic of Congo</t>
+  </si>
+  <si>
+    <t>Republic of Congo</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>AVGFAT</t>
+  </si>
+  <si>
+    <t>DURATIONSYRS</t>
+  </si>
+  <si>
+    <t>ENDYEAR</t>
+  </si>
+  <si>
+    <t>STARTYEAR</t>
+  </si>
+  <si>
+    <t>VICTIMGROUP</t>
+  </si>
+  <si>
+    <t>CIVFATLOW</t>
+  </si>
+  <si>
+    <t>CIVFATHIGH</t>
   </si>
 </sst>
 </file>
@@ -2927,38 +2867,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2968,7 +2908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3180,6 +3120,23 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3237,12 +3194,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3272,12 +3229,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3485,95 +3442,96 @@
     <tabColor indexed="11"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q132"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="L123" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.69921875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="51.69921875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="6.59765625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="6.8984375" style="10" customWidth="1"/>
-    <col min="6" max="7" width="6.296875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="6.8984375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="6.296875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.296875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="48.69921875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="55.09765625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="10.69921875" style="26" customWidth="1"/>
-    <col min="14" max="14" width="10.296875" style="26" customWidth="1"/>
-    <col min="15" max="15" width="11.09765625" style="32" customWidth="1"/>
-    <col min="16" max="16" width="23.8984375" style="28" customWidth="1"/>
-    <col min="17" max="17" width="35" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="9.09765625" style="10"/>
+    <col min="1" max="1" width="31.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="64" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="10" customWidth="1"/>
+    <col min="6" max="7" width="6.33203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="48.6640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="26" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="26" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="32" customWidth="1"/>
+    <col min="15" max="15" width="23.83203125" style="28" customWidth="1"/>
+    <col min="16" max="16" width="35" style="11" customWidth="1"/>
+    <col min="17" max="17" width="51.6640625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="55.1640625" style="11" customWidth="1"/>
+    <col min="19" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>520</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>221</v>
+        <v>593</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>162</v>
+        <v>612</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>165</v>
+        <v>611</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>535</v>
+        <v>610</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>166</v>
+        <v>128</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>614</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="167.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="168" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>615</v>
+        <v>522</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>521</v>
       </c>
       <c r="C2" s="9">
         <v>355</v>
@@ -3601,34 +3559,37 @@
         <v>12</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>381</v>
+        <v>109</v>
+      </c>
+      <c r="L2" s="26">
+        <v>50138</v>
       </c>
       <c r="M2" s="26">
-        <v>50138</v>
-      </c>
-      <c r="N2" s="26">
         <v>60138</v>
       </c>
-      <c r="O2" s="31">
-        <f t="shared" ref="O2:O21" si="1">AVERAGE(M2:N2)</f>
+      <c r="N2" s="31">
+        <f t="shared" ref="N2:N21" si="1">AVERAGE(L2:M2)</f>
         <v>55138</v>
       </c>
-      <c r="P2" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="265.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="265.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>130</v>
+        <v>523</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>524</v>
       </c>
       <c r="C3" s="9">
         <v>339</v>
@@ -3656,34 +3617,37 @@
         <v>41</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>531</v>
+        <v>109</v>
+      </c>
+      <c r="L3" s="26">
+        <v>5000</v>
       </c>
       <c r="M3" s="26">
-        <v>5000</v>
-      </c>
-      <c r="N3" s="26">
         <v>10000</v>
       </c>
-      <c r="O3" s="31">
+      <c r="N3" s="31">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="P3" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="265.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="265.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>616</v>
+        <v>525</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>524</v>
       </c>
       <c r="C4" s="9">
         <v>290</v>
@@ -3711,34 +3675,37 @@
         <v>11</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>127</v>
+        <v>109</v>
+      </c>
+      <c r="L4" s="26">
+        <v>8668</v>
       </c>
       <c r="M4" s="26">
-        <v>8668</v>
-      </c>
-      <c r="N4" s="26">
         <v>30000</v>
       </c>
-      <c r="O4" s="31">
+      <c r="N4" s="31">
         <f t="shared" si="1"/>
         <v>19334</v>
       </c>
-      <c r="P4" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="265.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="265.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>59</v>
+        <v>526</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>521</v>
       </c>
       <c r="C5" s="9">
         <v>310</v>
@@ -3766,34 +3733,37 @@
         <v>15</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>126</v>
+        <v>109</v>
+      </c>
+      <c r="L5" s="26">
+        <v>2000</v>
       </c>
       <c r="M5" s="26">
         <v>2000</v>
       </c>
-      <c r="N5" s="26">
-        <v>2000</v>
-      </c>
-      <c r="O5" s="31">
+      <c r="N5" s="31">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="P5" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="265.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="265.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>61</v>
+        <v>135</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>521</v>
       </c>
       <c r="C6" s="49">
         <v>360</v>
@@ -3821,34 +3791,37 @@
         <v>44</v>
       </c>
       <c r="K6" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="51" t="s">
-        <v>383</v>
+        <v>109</v>
+      </c>
+      <c r="L6" s="52">
+        <v>100000</v>
       </c>
       <c r="M6" s="52">
-        <v>100000</v>
-      </c>
-      <c r="N6" s="52">
         <v>360000</v>
       </c>
-      <c r="O6" s="31">
+      <c r="N6" s="31">
         <f t="shared" si="1"/>
         <v>230000</v>
       </c>
-      <c r="P6" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q6" s="51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="184.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="184.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>60</v>
+        <v>527</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>528</v>
       </c>
       <c r="C7" s="5">
         <v>345</v>
@@ -3876,34 +3849,37 @@
         <v>3</v>
       </c>
       <c r="K7" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="L7" s="55" t="s">
-        <v>136</v>
+        <v>189</v>
+      </c>
+      <c r="L7" s="61">
+        <v>55000</v>
       </c>
       <c r="M7" s="61">
-        <v>55000</v>
-      </c>
-      <c r="N7" s="61">
         <v>59355</v>
       </c>
-      <c r="O7" s="31">
+      <c r="N7" s="31">
         <f t="shared" si="1"/>
         <v>57177.5</v>
       </c>
-      <c r="P7" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="13" customFormat="1" ht="354.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="13" customFormat="1" ht="354.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>529</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>521</v>
       </c>
       <c r="C8" s="5">
         <v>345</v>
@@ -3931,34 +3907,37 @@
         <v>11</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>382</v>
+        <v>176</v>
+      </c>
+      <c r="L8" s="26">
+        <v>35000</v>
       </c>
       <c r="M8" s="26">
-        <v>35000</v>
-      </c>
-      <c r="N8" s="26">
         <v>65000</v>
       </c>
-      <c r="O8" s="31">
+      <c r="N8" s="31">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="P8" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q8" s="55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="13" customFormat="1" ht="143.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="13" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>62</v>
+        <v>530</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>528</v>
       </c>
       <c r="C9" s="5">
         <v>315</v>
@@ -3973,7 +3952,7 @@
         <v>1945</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H9" s="5">
         <v>11</v>
@@ -3986,34 +3965,37 @@
         <v>1</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>135</v>
+        <v>188</v>
+      </c>
+      <c r="L9" s="27">
+        <v>19000</v>
       </c>
       <c r="M9" s="27">
-        <v>19000</v>
-      </c>
-      <c r="N9" s="27">
         <v>30000</v>
       </c>
-      <c r="O9" s="31">
+      <c r="N9" s="31">
         <f t="shared" si="1"/>
         <v>24500</v>
       </c>
-      <c r="P9" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="13" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="13" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>63</v>
+        <v>525</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>528</v>
       </c>
       <c r="C10" s="5">
         <v>290</v>
@@ -4041,40 +4023,43 @@
         <v>3</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>384</v>
+        <v>187</v>
+      </c>
+      <c r="L10" s="27">
+        <v>1225000</v>
       </c>
       <c r="M10" s="27">
-        <v>1225000</v>
-      </c>
-      <c r="N10" s="27">
         <v>1618400</v>
       </c>
-      <c r="O10" s="31">
+      <c r="N10" s="31">
         <f t="shared" si="1"/>
         <v>1421700</v>
       </c>
-      <c r="P10" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="13" customFormat="1" ht="166.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="13" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>385</v>
+        <v>531</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>532</v>
       </c>
       <c r="C11" s="5">
         <v>290</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="E11" s="5">
         <v>7</v>
@@ -4083,7 +4068,7 @@
         <v>1945</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H11" s="5">
         <v>9</v>
@@ -4096,34 +4081,37 @@
         <v>2</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>131</v>
+        <v>198</v>
+      </c>
+      <c r="L11" s="27">
+        <v>2500</v>
       </c>
       <c r="M11" s="27">
-        <v>2500</v>
-      </c>
-      <c r="N11" s="27">
         <v>7500</v>
       </c>
-      <c r="O11" s="31">
+      <c r="N11" s="31">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="P11" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="13" customFormat="1" ht="129.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="13" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>386</v>
+        <v>533</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>534</v>
       </c>
       <c r="C12" s="16">
         <v>840</v>
@@ -4138,7 +4126,7 @@
         <v>1946</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H12" s="17">
         <v>5</v>
@@ -4151,34 +4139,37 @@
         <v>8</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>387</v>
+        <v>194</v>
+      </c>
+      <c r="L12" s="27">
+        <v>1000</v>
       </c>
       <c r="M12" s="27">
-        <v>1000</v>
-      </c>
-      <c r="N12" s="27">
         <v>3000</v>
       </c>
-      <c r="O12" s="31">
+      <c r="N12" s="31">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="P12" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="13" customFormat="1" ht="213.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="13" customFormat="1" ht="213.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>617</v>
+        <v>122</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>535</v>
       </c>
       <c r="C13" s="16">
         <v>713</v>
@@ -4206,34 +4197,37 @@
         <v>0</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>208</v>
+      </c>
+      <c r="L13" s="27">
+        <v>15000</v>
       </c>
       <c r="M13" s="27">
-        <v>15000</v>
-      </c>
-      <c r="N13" s="27">
         <v>30000</v>
       </c>
-      <c r="O13" s="31">
+      <c r="N13" s="31">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="P13" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="13" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="13" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>389</v>
+        <v>530</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>536</v>
       </c>
       <c r="C14" s="16">
         <v>315</v>
@@ -4261,34 +4255,37 @@
         <v>15</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>109</v>
+      </c>
+      <c r="L14" s="27">
+        <v>11060</v>
       </c>
       <c r="M14" s="27">
-        <v>11060</v>
-      </c>
-      <c r="N14" s="27">
         <v>25000</v>
       </c>
-      <c r="O14" s="31">
+      <c r="N14" s="31">
         <f t="shared" si="1"/>
         <v>18030</v>
       </c>
-      <c r="P14" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="13" customFormat="1" ht="216.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="13" customFormat="1" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>391</v>
+        <v>538</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>537</v>
       </c>
       <c r="C15" s="16">
         <v>775</v>
@@ -4316,34 +4313,37 @@
         <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>392</v>
+        <v>259</v>
+      </c>
+      <c r="L15" s="27">
+        <v>100000</v>
       </c>
       <c r="M15" s="27">
         <v>100000</v>
       </c>
-      <c r="N15" s="27">
-        <v>100000</v>
-      </c>
-      <c r="O15" s="31">
+      <c r="N15" s="31">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="P15" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="13" customFormat="1" ht="216.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="13" customFormat="1" ht="216.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>393</v>
+        <v>540</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>539</v>
       </c>
       <c r="C16" s="16">
         <v>732</v>
@@ -4358,7 +4358,7 @@
         <v>1948</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H16" s="17">
         <v>6</v>
@@ -4371,34 +4371,37 @@
         <v>2</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>394</v>
+        <v>197</v>
+      </c>
+      <c r="L16" s="27">
+        <v>12725</v>
       </c>
       <c r="M16" s="27">
-        <v>12725</v>
-      </c>
-      <c r="N16" s="27">
         <v>30000</v>
       </c>
-      <c r="O16" s="31">
+      <c r="N16" s="31">
         <f t="shared" si="1"/>
         <v>21362.5</v>
       </c>
-      <c r="P16" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="13" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="13" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>125</v>
+        <v>541</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>542</v>
       </c>
       <c r="C17" s="16">
         <v>100</v>
@@ -4426,34 +4429,37 @@
         <v>10</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>395</v>
+        <v>196</v>
+      </c>
+      <c r="L17" s="27">
+        <v>50000</v>
       </c>
       <c r="M17" s="27">
-        <v>50000</v>
-      </c>
-      <c r="N17" s="27">
         <v>150000</v>
       </c>
-      <c r="O17" s="31">
+      <c r="N17" s="31">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="P17" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="13" customFormat="1" ht="174.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="13" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>573</v>
+        <v>538</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>543</v>
       </c>
       <c r="C18" s="16">
         <v>775</v>
@@ -4468,47 +4474,50 @@
         <v>1948</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="J18" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>309</v>
+        <v>257</v>
+      </c>
+      <c r="L18" s="27">
+        <v>145000</v>
       </c>
       <c r="M18" s="27">
         <v>145000</v>
       </c>
-      <c r="N18" s="27">
-        <v>145000</v>
-      </c>
-      <c r="O18" s="31">
+      <c r="N18" s="31">
         <f t="shared" si="1"/>
         <v>145000</v>
       </c>
-      <c r="P18" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="13" customFormat="1" ht="174.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="13" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>574</v>
+        <v>544</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>536</v>
       </c>
       <c r="C19" s="16">
         <v>731</v>
@@ -4523,47 +4532,50 @@
         <v>1948</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="J19" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>396</v>
+        <v>109</v>
+      </c>
+      <c r="L19" s="27">
+        <v>400000</v>
       </c>
       <c r="M19" s="27">
-        <v>400000</v>
-      </c>
-      <c r="N19" s="27">
         <v>1500000</v>
       </c>
-      <c r="O19" s="31">
+      <c r="N19" s="31">
         <f t="shared" si="1"/>
         <v>950000</v>
       </c>
-      <c r="P19" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="13" customFormat="1" ht="153.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="13" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>290</v>
+        <v>545</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>546</v>
       </c>
       <c r="C20" s="16">
         <v>850</v>
@@ -4591,34 +4603,37 @@
         <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>397</v>
+        <v>195</v>
+      </c>
+      <c r="L20" s="27">
+        <v>1500</v>
       </c>
       <c r="M20" s="27">
-        <v>1500</v>
-      </c>
-      <c r="N20" s="27">
         <v>4000</v>
       </c>
-      <c r="O20" s="31">
+      <c r="N20" s="31">
         <f t="shared" si="1"/>
         <v>2750</v>
       </c>
-      <c r="P20" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="13" customFormat="1" ht="135.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="13" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>398</v>
+        <v>547</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>548</v>
       </c>
       <c r="C21" s="16">
         <v>710</v>
@@ -4646,34 +4661,37 @@
         <v>28</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>261</v>
+        <v>109</v>
+      </c>
+      <c r="L21" s="27">
+        <v>31000000</v>
       </c>
       <c r="M21" s="27">
-        <v>31000000</v>
-      </c>
-      <c r="N21" s="27">
         <v>40000000</v>
       </c>
-      <c r="O21" s="31">
+      <c r="N21" s="31">
         <f t="shared" si="1"/>
         <v>35500000</v>
       </c>
-      <c r="P21" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="56" customFormat="1" ht="202.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="56" customFormat="1" ht="202.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="60" t="s">
-        <v>592</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>542</v>
+        <v>549</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>550</v>
       </c>
       <c r="C22" s="58">
         <v>90</v>
@@ -4700,33 +4718,36 @@
         <v>42</v>
       </c>
       <c r="K22" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="L22" s="55" t="s">
-        <v>591</v>
+        <v>160</v>
+      </c>
+      <c r="L22" s="61">
+        <v>100000</v>
       </c>
       <c r="M22" s="61">
-        <v>100000</v>
-      </c>
-      <c r="N22" s="61">
         <v>180000</v>
       </c>
-      <c r="O22" s="63">
+      <c r="N22" s="63">
         <v>140000</v>
       </c>
-      <c r="P22" s="62" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q22" s="55" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="O22" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="P22" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q22" s="57" t="s">
+        <v>438</v>
+      </c>
+      <c r="R22" s="55" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="409" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>618</v>
+        <v>552</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>551</v>
       </c>
       <c r="C23" s="49">
         <v>817</v>
@@ -4754,35 +4775,36 @@
         <v>21</v>
       </c>
       <c r="K23" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="L23" s="51" t="s">
-        <v>401</v>
+        <v>171</v>
+      </c>
+      <c r="L23" s="52">
+        <v>150000</v>
       </c>
       <c r="M23" s="52">
-        <v>150000</v>
-      </c>
-      <c r="N23" s="52">
         <v>300000</v>
       </c>
-      <c r="O23" s="31">
-        <f t="shared" ref="O23:O54" si="3">AVERAGE(M23:N23)</f>
+      <c r="N23" s="31">
+        <f t="shared" ref="N23:N54" si="3">AVERAGE(L23:M23)</f>
         <v>225000</v>
       </c>
-      <c r="P23" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q23" s="51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="P23" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q23" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="R23" s="51" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="189" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>399</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B24" s="66"/>
       <c r="C24" s="58">
         <v>816</v>
       </c>
@@ -4809,40 +4831,43 @@
         <v>3</v>
       </c>
       <c r="K24" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="L24" s="55" t="s">
-        <v>400</v>
+        <v>109</v>
+      </c>
+      <c r="L24" s="61">
+        <v>32000</v>
       </c>
       <c r="M24" s="61">
-        <v>32000</v>
-      </c>
-      <c r="N24" s="61">
         <v>50000</v>
       </c>
-      <c r="O24" s="31">
+      <c r="N24" s="31">
         <f t="shared" si="3"/>
         <v>41000</v>
       </c>
-      <c r="P24" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q24" s="55" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P24" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q24" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="R24" s="55" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="156.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>402</v>
+        <v>547</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>553</v>
       </c>
       <c r="C25" s="9">
         <v>710</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="E25" s="10">
         <v>8</v>
@@ -4864,34 +4889,37 @@
         <v>23</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>403</v>
+        <v>143</v>
+      </c>
+      <c r="L25" s="26">
+        <v>250000</v>
       </c>
       <c r="M25" s="26">
-        <v>250000</v>
-      </c>
-      <c r="N25" s="26">
         <v>500000</v>
       </c>
-      <c r="O25" s="31">
+      <c r="N25" s="31">
         <f t="shared" si="3"/>
         <v>375000</v>
       </c>
-      <c r="P25" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="13" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="13" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>404</v>
+        <v>139</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>551</v>
       </c>
       <c r="C26" s="9">
         <v>625</v>
@@ -4919,34 +4947,37 @@
         <v>17</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>405</v>
+        <v>142</v>
+      </c>
+      <c r="L26" s="26">
+        <v>400000</v>
       </c>
       <c r="M26" s="26">
-        <v>400000</v>
-      </c>
-      <c r="N26" s="26">
         <v>600000</v>
       </c>
-      <c r="O26" s="31">
+      <c r="N26" s="31">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="P26" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="13" customFormat="1" ht="224.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="13" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>619</v>
+        <v>554</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>521</v>
       </c>
       <c r="C27" s="9">
         <v>41</v>
@@ -4974,34 +5005,37 @@
         <v>28</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>406</v>
+        <v>190</v>
+      </c>
+      <c r="L27" s="26">
+        <v>10000</v>
       </c>
       <c r="M27" s="26">
-        <v>10000</v>
-      </c>
-      <c r="N27" s="26">
         <v>60000</v>
       </c>
-      <c r="O27" s="31">
+      <c r="N27" s="31">
         <f t="shared" si="3"/>
         <v>35000</v>
       </c>
-      <c r="P27" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="13" customFormat="1" ht="156.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="13" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>291</v>
+        <v>555</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>521</v>
       </c>
       <c r="C28" s="16">
         <v>40</v>
@@ -5029,34 +5063,37 @@
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>407</v>
+        <v>175</v>
+      </c>
+      <c r="L28" s="27">
+        <v>5000</v>
       </c>
       <c r="M28" s="27">
-        <v>5000</v>
-      </c>
-      <c r="N28" s="27">
         <v>8335</v>
       </c>
-      <c r="O28" s="31">
+      <c r="N28" s="31">
         <f t="shared" si="3"/>
         <v>6667.5</v>
       </c>
-      <c r="P28" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="13" customFormat="1" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="13" customFormat="1" ht="245.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>620</v>
+        <v>556</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>557</v>
       </c>
       <c r="C29" s="16">
         <v>645</v>
@@ -5084,34 +5121,37 @@
         <v>0</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>408</v>
+        <v>193</v>
+      </c>
+      <c r="L29" s="27">
+        <v>1000</v>
       </c>
       <c r="M29" s="27">
         <v>1000</v>
       </c>
-      <c r="N29" s="27">
-        <v>1000</v>
-      </c>
-      <c r="O29" s="31">
+      <c r="N29" s="31">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="P29" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="164.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>581</v>
+        <v>558</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>559</v>
       </c>
       <c r="C30" s="58">
         <v>812</v>
@@ -5139,40 +5179,43 @@
         <v>14</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L30" s="55" t="s">
-        <v>411</v>
+        <v>216</v>
+      </c>
+      <c r="L30" s="61">
+        <v>30000</v>
       </c>
       <c r="M30" s="61">
-        <v>30000</v>
-      </c>
-      <c r="N30" s="61">
         <v>90000</v>
       </c>
-      <c r="O30" s="31">
+      <c r="N30" s="31">
         <f t="shared" si="3"/>
         <v>60000</v>
       </c>
-      <c r="P30" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q30" s="55" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="204.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q30" s="57" t="s">
+        <v>473</v>
+      </c>
+      <c r="R30" s="55" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="204.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>409</v>
+        <v>560</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>521</v>
       </c>
       <c r="C31" s="49">
         <v>438</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="E31" s="54">
         <v>4</v>
@@ -5194,34 +5237,37 @@
         <v>20</v>
       </c>
       <c r="K31" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="L31" s="51" t="s">
-        <v>410</v>
+        <v>190</v>
+      </c>
+      <c r="L31" s="52">
+        <v>6000</v>
       </c>
       <c r="M31" s="52">
-        <v>6000</v>
-      </c>
-      <c r="N31" s="52">
         <v>50000</v>
       </c>
-      <c r="O31" s="31">
+      <c r="N31" s="31">
         <f t="shared" si="3"/>
         <v>28000</v>
       </c>
-      <c r="P31" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q31" s="51" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="170.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O31" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q31" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="R31" s="51" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="170.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>412</v>
+        <v>561</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>562</v>
       </c>
       <c r="C32" s="16">
         <v>490</v>
@@ -5249,34 +5295,37 @@
         <v>3</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>413</v>
+        <v>192</v>
+      </c>
+      <c r="L32" s="27">
+        <v>5000</v>
       </c>
       <c r="M32" s="27">
         <v>5000</v>
       </c>
-      <c r="N32" s="27">
-        <v>5000</v>
-      </c>
-      <c r="O32" s="31">
+      <c r="N32" s="31">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="P32" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q32" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="149.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O32" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="R32" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>621</v>
+        <v>556</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>563</v>
       </c>
       <c r="C33" s="9">
         <v>645</v>
@@ -5304,40 +5353,43 @@
         <v>30</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>414</v>
+        <v>56</v>
+      </c>
+      <c r="L33" s="26">
+        <v>80000</v>
       </c>
       <c r="M33" s="26">
-        <v>80000</v>
-      </c>
-      <c r="N33" s="26">
         <v>240000</v>
       </c>
-      <c r="O33" s="31">
+      <c r="N33" s="31">
         <f t="shared" si="3"/>
         <v>160000</v>
       </c>
-      <c r="P33" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q33" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>71</v>
+        <v>564</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>551</v>
       </c>
       <c r="C34" s="10">
         <v>530</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="E34" s="10">
         <v>9</v>
@@ -5359,34 +5411,37 @@
         <v>30</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>415</v>
+        <v>62</v>
+      </c>
+      <c r="L34" s="26">
+        <v>180000</v>
       </c>
       <c r="M34" s="26">
-        <v>180000</v>
-      </c>
-      <c r="N34" s="26">
         <v>200000</v>
       </c>
-      <c r="O34" s="31">
+      <c r="N34" s="31">
         <f t="shared" si="3"/>
         <v>190000</v>
       </c>
-      <c r="P34" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q34" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="13" customFormat="1" ht="127.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R34" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="13" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>622</v>
+        <v>565</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>566</v>
       </c>
       <c r="C35" s="9">
         <v>615</v>
@@ -5401,7 +5456,7 @@
         <v>1962</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H35" s="10">
         <v>12</v>
@@ -5414,34 +5469,34 @@
         <v>0</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>416</v>
+        <v>144</v>
+      </c>
+      <c r="L35" s="26">
+        <v>30000</v>
       </c>
       <c r="M35" s="26">
-        <v>30000</v>
-      </c>
-      <c r="N35" s="26">
         <v>150000</v>
       </c>
-      <c r="O35" s="31">
+      <c r="N35" s="31">
         <f t="shared" si="3"/>
         <v>90000</v>
       </c>
-      <c r="P35" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q35" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="158.30000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O35" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="R35" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="C36" s="9">
         <v>678</v>
@@ -5469,34 +5524,37 @@
         <v>8</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>417</v>
+        <v>3</v>
+      </c>
+      <c r="L36" s="26">
+        <v>20000</v>
       </c>
       <c r="M36" s="26">
-        <v>20000</v>
-      </c>
-      <c r="N36" s="26">
         <v>50000</v>
       </c>
-      <c r="O36" s="31">
+      <c r="N36" s="31">
         <f t="shared" si="3"/>
         <v>35000</v>
       </c>
-      <c r="P36" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q36" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="13" customFormat="1" ht="261" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="13" customFormat="1" ht="261" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>418</v>
+        <v>556</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>567</v>
       </c>
       <c r="C37" s="10">
         <v>645</v>
@@ -5524,35 +5582,36 @@
         <v>40</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>419</v>
+        <v>4</v>
+      </c>
+      <c r="L37" s="26">
+        <v>85000</v>
       </c>
       <c r="M37" s="26">
         <v>85000</v>
       </c>
-      <c r="N37" s="26">
-        <v>85000</v>
-      </c>
-      <c r="O37" s="31">
+      <c r="N37" s="31">
         <f t="shared" si="3"/>
         <v>85000</v>
       </c>
-      <c r="P37" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q37" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="13" customFormat="1" ht="181.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="R37" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="13" customFormat="1" ht="181.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>623</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B38" s="64"/>
       <c r="C38" s="9">
         <v>517</v>
       </c>
@@ -5579,34 +5638,37 @@
         <v>4</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>420</v>
+        <v>145</v>
+      </c>
+      <c r="L38" s="26">
+        <v>12000</v>
       </c>
       <c r="M38" s="26">
-        <v>12000</v>
-      </c>
-      <c r="N38" s="26">
         <v>20000</v>
       </c>
-      <c r="O38" s="31">
+      <c r="N38" s="31">
         <f t="shared" si="3"/>
         <v>16000</v>
       </c>
-      <c r="P38" s="28" t="s">
+      <c r="O38" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="P38" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="Q38" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="141.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q38" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="R38" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>421</v>
+        <v>568</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>521</v>
       </c>
       <c r="C39" s="9">
         <v>511</v>
@@ -5634,40 +5696,40 @@
         <v>0</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="L39" s="11" t="s">
-        <v>422</v>
+        <v>184</v>
+      </c>
+      <c r="L39" s="26">
+        <v>4000</v>
       </c>
       <c r="M39" s="26">
-        <v>4000</v>
-      </c>
-      <c r="N39" s="26">
         <v>5000</v>
       </c>
-      <c r="O39" s="31">
+      <c r="N39" s="31">
         <f t="shared" si="3"/>
         <v>4500</v>
       </c>
-      <c r="P39" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q39" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="138.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>423</v>
+        <v>561</v>
       </c>
       <c r="C40" s="13">
         <v>490</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="E40" s="13">
         <v>1</v>
@@ -5689,34 +5751,37 @@
         <v>1</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>424</v>
+        <v>276</v>
+      </c>
+      <c r="L40" s="27">
+        <v>2000</v>
       </c>
       <c r="M40" s="27">
-        <v>2000</v>
-      </c>
-      <c r="N40" s="27">
         <v>5000</v>
       </c>
-      <c r="O40" s="31">
+      <c r="N40" s="31">
         <f t="shared" si="3"/>
         <v>3500</v>
       </c>
-      <c r="P40" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q40" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="118.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O40" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q40" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>425</v>
+        <v>569</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>536</v>
       </c>
       <c r="C41" s="21">
         <v>553</v>
@@ -5744,35 +5809,36 @@
         <v>30</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>426</v>
+        <v>183</v>
+      </c>
+      <c r="L41" s="27">
+        <v>6000</v>
       </c>
       <c r="M41" s="27">
         <v>6000</v>
       </c>
-      <c r="N41" s="27">
-        <v>6000</v>
-      </c>
-      <c r="O41" s="31">
+      <c r="N41" s="31">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="P41" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q41" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" s="13" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P41" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q41" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="R41" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="13" customFormat="1" ht="173.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>575</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="B42" s="64"/>
       <c r="C42" s="10">
         <v>100</v>
       </c>
@@ -5799,34 +5865,37 @@
         <v>45</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="11" t="s">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="L42" s="26">
+        <v>40000</v>
       </c>
       <c r="M42" s="26">
-        <v>40000</v>
-      </c>
-      <c r="N42" s="26">
         <v>60000</v>
       </c>
-      <c r="O42" s="31">
+      <c r="N42" s="31">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="P42" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q42" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="163.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>427</v>
+        <v>570</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>551</v>
       </c>
       <c r="C43" s="13">
         <v>42</v>
@@ -5854,34 +5923,37 @@
         <v>13</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>428</v>
+        <v>47</v>
+      </c>
+      <c r="L43" s="27">
+        <v>4000</v>
       </c>
       <c r="M43" s="27">
-        <v>4000</v>
-      </c>
-      <c r="N43" s="27">
         <v>5000</v>
       </c>
-      <c r="O43" s="31">
+      <c r="N43" s="31">
         <f t="shared" si="3"/>
         <v>4500</v>
       </c>
-      <c r="P43" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q43" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="144.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O43" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q43" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="R43" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="144.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>624</v>
+        <v>545</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>571</v>
       </c>
       <c r="C44" s="9">
         <v>850</v>
@@ -5896,7 +5968,7 @@
         <v>1965</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H44" s="10">
         <v>3</v>
@@ -5909,35 +5981,36 @@
         <v>1</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>429</v>
+        <v>148</v>
+      </c>
+      <c r="L44" s="26">
+        <v>250000</v>
       </c>
       <c r="M44" s="26">
-        <v>250000</v>
-      </c>
-      <c r="N44" s="26">
         <v>500000</v>
       </c>
-      <c r="O44" s="31">
+      <c r="N44" s="31">
         <f t="shared" si="3"/>
         <v>375000</v>
       </c>
-      <c r="P44" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q44" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" s="13" customFormat="1" ht="125.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="13" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>430</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B45" s="64"/>
       <c r="C45" s="9">
         <v>516</v>
       </c>
@@ -5964,34 +6037,37 @@
         <v>8</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="L45" s="28" t="s">
-        <v>431</v>
+        <v>147</v>
+      </c>
+      <c r="L45" s="26">
+        <v>100000</v>
       </c>
       <c r="M45" s="26">
-        <v>100000</v>
-      </c>
-      <c r="N45" s="26">
         <v>200000</v>
       </c>
-      <c r="O45" s="31">
+      <c r="N45" s="31">
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
-      <c r="P45" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="O45" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="R45" s="28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="409" x14ac:dyDescent="0.15">
       <c r="A46" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>432</v>
+        <v>572</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>551</v>
       </c>
       <c r="C46" s="9">
         <v>811</v>
@@ -6019,40 +6095,43 @@
         <v>8</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>433</v>
+        <v>217</v>
+      </c>
+      <c r="L46" s="26">
+        <v>85000</v>
       </c>
       <c r="M46" s="26">
-        <v>85000</v>
-      </c>
-      <c r="N46" s="26">
         <v>200000</v>
       </c>
-      <c r="O46" s="31">
+      <c r="N46" s="31">
         <f t="shared" si="3"/>
         <v>142500</v>
       </c>
-      <c r="P46" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q46" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="196.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O46" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="R46" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="196.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>434</v>
+        <v>573</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>574</v>
       </c>
       <c r="C47" s="9">
         <v>475</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="E47" s="10">
         <v>6</v>
@@ -6074,34 +6153,34 @@
         <v>3</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>304</v>
+        <v>170</v>
+      </c>
+      <c r="L47" s="26">
+        <v>600000</v>
       </c>
       <c r="M47" s="26">
-        <v>600000</v>
-      </c>
-      <c r="N47" s="26">
         <v>2000000</v>
       </c>
-      <c r="O47" s="31">
+      <c r="N47" s="31">
         <f t="shared" si="3"/>
         <v>1300000</v>
       </c>
-      <c r="P47" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q47" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="147.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C48" s="9">
         <v>411</v>
@@ -6129,35 +6208,36 @@
         <v>10</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>435</v>
+        <v>191</v>
+      </c>
+      <c r="L48" s="26">
+        <v>40000</v>
       </c>
       <c r="M48" s="26">
-        <v>40000</v>
-      </c>
-      <c r="N48" s="26">
         <v>50000</v>
       </c>
-      <c r="O48" s="31">
+      <c r="N48" s="31">
         <f t="shared" si="3"/>
         <v>45000</v>
       </c>
-      <c r="P48" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" s="39" customFormat="1" ht="113.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O48" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="R48" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="39" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="34" t="s">
-        <v>587</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>588</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="B49" s="67"/>
       <c r="C49" s="36">
         <v>840</v>
       </c>
@@ -6184,35 +6264,36 @@
         <v>41</v>
       </c>
       <c r="K49" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="L49" s="40" t="s">
-        <v>436</v>
+        <v>278</v>
+      </c>
+      <c r="L49" s="41">
+        <v>5000</v>
       </c>
       <c r="M49" s="41">
-        <v>5000</v>
-      </c>
-      <c r="N49" s="41">
         <v>8000</v>
       </c>
-      <c r="O49" s="42">
+      <c r="N49" s="42">
         <f t="shared" si="3"/>
         <v>6500</v>
       </c>
-      <c r="P49" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q49" s="40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" s="39" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O49" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="P49" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q49" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="R49" s="40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="39" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>558</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="B50" s="68"/>
       <c r="C50" s="39">
         <v>850</v>
       </c>
@@ -6239,34 +6320,34 @@
         <v>38</v>
       </c>
       <c r="K50" s="40" t="s">
-        <v>373</v>
-      </c>
-      <c r="L50" s="40" t="s">
-        <v>437</v>
+        <v>273</v>
+      </c>
+      <c r="L50" s="41">
+        <v>40000</v>
       </c>
       <c r="M50" s="41">
         <v>40000</v>
       </c>
-      <c r="N50" s="41">
-        <v>40000</v>
-      </c>
-      <c r="O50" s="42">
+      <c r="N50" s="42">
         <f t="shared" si="3"/>
         <v>40000</v>
       </c>
-      <c r="P50" s="43" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q50" s="40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O50" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="P50" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q50" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="R50" s="40" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>438</v>
+        <v>575</v>
       </c>
       <c r="C51" s="9">
         <v>663</v>
@@ -6294,34 +6375,34 @@
         <v>1</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L51" s="11" t="s">
-        <v>439</v>
+        <v>81</v>
+      </c>
+      <c r="L51" s="26">
+        <v>1000</v>
       </c>
       <c r="M51" s="26">
         <v>1000</v>
       </c>
-      <c r="N51" s="26">
-        <v>1000</v>
-      </c>
-      <c r="O51" s="31">
+      <c r="N51" s="31">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="P51" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q51" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="240.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O51" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="P51" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="R51" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>440</v>
+        <v>576</v>
       </c>
       <c r="C52" s="9">
         <v>500</v>
@@ -6349,34 +6430,34 @@
         <v>8</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>441</v>
+        <v>168</v>
+      </c>
+      <c r="L52" s="26">
+        <v>30000</v>
       </c>
       <c r="M52" s="26">
-        <v>30000</v>
-      </c>
-      <c r="N52" s="26">
         <v>300000</v>
       </c>
-      <c r="O52" s="31">
+      <c r="N52" s="31">
         <f t="shared" si="3"/>
         <v>165000</v>
       </c>
-      <c r="P52" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q52" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="107.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O52" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q52" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>442</v>
+        <v>577</v>
       </c>
       <c r="C53" s="9">
         <v>769</v>
@@ -6404,34 +6485,34 @@
         <v>0</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="L53" s="11" t="s">
-        <v>443</v>
+        <v>169</v>
+      </c>
+      <c r="L53" s="26">
+        <v>300000</v>
       </c>
       <c r="M53" s="26">
-        <v>300000</v>
-      </c>
-      <c r="N53" s="26">
         <v>1000000</v>
       </c>
-      <c r="O53" s="31">
+      <c r="N53" s="31">
         <f t="shared" si="3"/>
         <v>650000</v>
       </c>
-      <c r="P53" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q53" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="103.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O53" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="P53" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q53" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="R53" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C54" s="9">
         <v>780</v>
@@ -6459,34 +6540,34 @@
         <v>0</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>445</v>
+        <v>209</v>
+      </c>
+      <c r="L54" s="26">
+        <v>2000</v>
       </c>
       <c r="M54" s="26">
-        <v>2000</v>
-      </c>
-      <c r="N54" s="26">
         <v>8000</v>
       </c>
-      <c r="O54" s="31">
+      <c r="N54" s="31">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="P54" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q54" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="172.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O54" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q54" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="172.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>446</v>
+        <v>533</v>
       </c>
       <c r="C55" s="9">
         <v>840</v>
@@ -6514,40 +6595,43 @@
         <v>14</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="L55" s="11" t="s">
-        <v>447</v>
+        <v>167</v>
+      </c>
+      <c r="L55" s="26">
+        <v>30000</v>
       </c>
       <c r="M55" s="26">
-        <v>30000</v>
-      </c>
-      <c r="N55" s="26">
         <v>60000</v>
       </c>
-      <c r="O55" s="31">
-        <f t="shared" ref="O55:O86" si="5">AVERAGE(M55:N55)</f>
+      <c r="N55" s="31">
+        <f t="shared" ref="N55:N86" si="5">AVERAGE(L55:M55)</f>
         <v>45000</v>
       </c>
-      <c r="P55" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q55" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O55" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="P55" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q55" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="R55" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>296</v>
+        <v>141</v>
+      </c>
+      <c r="B56" s="64" t="s">
+        <v>551</v>
       </c>
       <c r="C56" s="9">
         <v>552</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="E56" s="16">
         <v>12</v>
@@ -6569,40 +6653,41 @@
         <v>7</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="L56" s="11" t="s">
-        <v>448</v>
+        <v>210</v>
+      </c>
+      <c r="L56" s="26">
+        <v>4000</v>
       </c>
       <c r="M56" s="26">
-        <v>4000</v>
-      </c>
-      <c r="N56" s="26">
         <v>10000</v>
       </c>
-      <c r="O56" s="31">
+      <c r="N56" s="31">
         <f t="shared" si="5"/>
         <v>7000</v>
       </c>
-      <c r="P56" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q56" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" s="13" customFormat="1" ht="150.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O56" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q56" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="R56" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="13" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>265</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="B57" s="64"/>
       <c r="C57" s="10">
         <v>770</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="E57" s="10">
         <v>2</v>
@@ -6611,7 +6696,7 @@
         <v>1973</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H57" s="10">
         <v>7</v>
@@ -6624,34 +6709,34 @@
         <v>4</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="L57" s="11" t="s">
-        <v>449</v>
+        <v>165</v>
+      </c>
+      <c r="L57" s="26">
+        <v>1000</v>
       </c>
       <c r="M57" s="26">
-        <v>1000</v>
-      </c>
-      <c r="N57" s="26">
         <v>2500</v>
       </c>
-      <c r="O57" s="31">
+      <c r="N57" s="31">
         <f t="shared" si="5"/>
         <v>1750</v>
       </c>
-      <c r="P57" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q57" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="252" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O57" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="P57" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q57" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="R57" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="252" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>540</v>
+        <v>132</v>
       </c>
       <c r="C58" s="10">
         <v>155</v>
@@ -6679,34 +6764,37 @@
         <v>5</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="L58" s="11" t="s">
-        <v>450</v>
+        <v>166</v>
+      </c>
+      <c r="L58" s="26">
+        <v>3200</v>
       </c>
       <c r="M58" s="26">
         <v>3200</v>
       </c>
-      <c r="N58" s="26">
-        <v>3200</v>
-      </c>
-      <c r="O58" s="31">
+      <c r="N58" s="31">
         <f t="shared" si="5"/>
         <v>3200</v>
       </c>
-      <c r="P58" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q58" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="O58" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="P58" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q58" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="R58" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="409" x14ac:dyDescent="0.15">
       <c r="A59" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>451</v>
+        <v>564</v>
+      </c>
+      <c r="B59" s="64" t="s">
+        <v>521</v>
       </c>
       <c r="C59" s="10">
         <v>530</v>
@@ -6734,34 +6822,34 @@
         <v>17</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L59" s="11" t="s">
-        <v>452</v>
+        <v>63</v>
+      </c>
+      <c r="L59" s="26">
+        <v>200000</v>
       </c>
       <c r="M59" s="26">
-        <v>200000</v>
-      </c>
-      <c r="N59" s="26">
         <v>300000</v>
       </c>
-      <c r="O59" s="31">
+      <c r="N59" s="31">
         <f t="shared" si="5"/>
         <v>250000</v>
       </c>
-      <c r="P59" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q59" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="184.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O59" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="P59" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q59" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="R59" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="184.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="C60" s="10">
         <v>93</v>
@@ -6789,34 +6877,37 @@
         <v>5</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="L60" s="11" t="s">
-        <v>453</v>
+        <v>48</v>
+      </c>
+      <c r="L60" s="26">
+        <v>7000</v>
       </c>
       <c r="M60" s="26">
         <v>7000</v>
       </c>
-      <c r="N60" s="26">
-        <v>7000</v>
-      </c>
-      <c r="O60" s="31">
+      <c r="N60" s="31">
         <f t="shared" si="5"/>
         <v>7000</v>
       </c>
-      <c r="P60" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q60" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" s="13" customFormat="1" ht="184.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O60" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="P60" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q60" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="R60" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="13" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>582</v>
+        <v>558</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>579</v>
       </c>
       <c r="C61" s="21">
         <v>812</v>
@@ -6844,34 +6935,34 @@
         <v>16</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="L61" s="12" t="s">
-        <v>454</v>
+        <v>186</v>
+      </c>
+      <c r="L61" s="27">
+        <v>5000</v>
       </c>
       <c r="M61" s="27">
-        <v>5000</v>
-      </c>
-      <c r="N61" s="27">
         <v>36000</v>
       </c>
-      <c r="O61" s="33">
+      <c r="N61" s="33">
         <f t="shared" si="5"/>
         <v>20500</v>
       </c>
-      <c r="P61" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q61" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="150.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O61" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="P61" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q61" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="R61" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="150.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>87</v>
+        <v>572</v>
       </c>
       <c r="C62" s="13">
         <v>811</v>
@@ -6899,34 +6990,37 @@
         <v>4</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="L62" s="12" t="s">
-        <v>455</v>
+        <v>163</v>
+      </c>
+      <c r="L62" s="27">
+        <v>1000000</v>
       </c>
       <c r="M62" s="27">
-        <v>1000000</v>
-      </c>
-      <c r="N62" s="27">
         <v>2000000</v>
       </c>
-      <c r="O62" s="31">
+      <c r="N62" s="31">
         <f t="shared" si="5"/>
         <v>1500000</v>
       </c>
-      <c r="P62" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q62" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="222.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O62" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P62" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q62" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="R62" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>536</v>
+        <v>552</v>
+      </c>
+      <c r="B63" s="64" t="s">
+        <v>521</v>
       </c>
       <c r="C63" s="10">
         <v>816</v>
@@ -6954,34 +7048,34 @@
         <v>11</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L63" s="11" t="s">
-        <v>456</v>
+        <v>78</v>
+      </c>
+      <c r="L63" s="26">
+        <v>65000</v>
       </c>
       <c r="M63" s="26">
-        <v>65000</v>
-      </c>
-      <c r="N63" s="26">
         <v>100000</v>
       </c>
-      <c r="O63" s="31">
+      <c r="N63" s="31">
         <f t="shared" si="5"/>
         <v>82500</v>
       </c>
-      <c r="P63" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q63" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="201.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O63" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="P63" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q63" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="R63" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>457</v>
+        <v>580</v>
       </c>
       <c r="C64" s="10">
         <v>541</v>
@@ -7009,34 +7103,37 @@
         <v>17</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="L64" s="11" t="s">
-        <v>458</v>
+        <v>247</v>
+      </c>
+      <c r="L64" s="26">
+        <v>3000</v>
       </c>
       <c r="M64" s="26">
-        <v>3000</v>
-      </c>
-      <c r="N64" s="26">
         <v>60000</v>
       </c>
-      <c r="O64" s="31">
+      <c r="N64" s="31">
         <f t="shared" si="5"/>
         <v>31500</v>
       </c>
-      <c r="P64" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q64" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O64" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="P64" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q64" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="R64" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="160.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>533</v>
+        <v>581</v>
+      </c>
+      <c r="B65" s="64" t="s">
+        <v>551</v>
       </c>
       <c r="C65" s="10">
         <v>540</v>
@@ -7064,34 +7161,34 @@
         <v>27</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="L65" s="11" t="s">
-        <v>459</v>
+        <v>164</v>
+      </c>
+      <c r="L65" s="26">
+        <v>60000</v>
       </c>
       <c r="M65" s="26">
-        <v>60000</v>
-      </c>
-      <c r="N65" s="26">
         <v>375000</v>
       </c>
-      <c r="O65" s="31">
+      <c r="N65" s="31">
         <f t="shared" si="5"/>
         <v>217500</v>
       </c>
-      <c r="P65" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q65" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="194.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O65" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q65" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="R65" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>460</v>
+        <v>545</v>
       </c>
       <c r="C66" s="10">
         <v>850</v>
@@ -7119,34 +7216,34 @@
         <v>24</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="L66" s="11" t="s">
-        <v>461</v>
+        <v>162</v>
+      </c>
+      <c r="L66" s="26">
+        <v>80000</v>
       </c>
       <c r="M66" s="26">
-        <v>80000</v>
-      </c>
-      <c r="N66" s="26">
         <v>150000</v>
       </c>
-      <c r="O66" s="31">
+      <c r="N66" s="31">
         <f t="shared" si="5"/>
         <v>115000</v>
       </c>
-      <c r="P66" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q66" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="212.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O66" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="P66" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q66" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="R66" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="213" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>462</v>
+        <v>130</v>
       </c>
       <c r="C67" s="10">
         <v>160</v>
@@ -7174,35 +7271,36 @@
         <v>7</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="L67" s="11" t="s">
-        <v>463</v>
+        <v>161</v>
+      </c>
+      <c r="L67" s="26">
+        <v>9000</v>
       </c>
       <c r="M67" s="26">
-        <v>9000</v>
-      </c>
-      <c r="N67" s="26">
         <v>30000</v>
       </c>
-      <c r="O67" s="31">
+      <c r="N67" s="31">
         <f t="shared" si="5"/>
         <v>19500</v>
       </c>
-      <c r="P67" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q67" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O67" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P67" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q67" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="R67" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>67</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B68" s="66"/>
       <c r="C68" s="16">
         <v>560</v>
       </c>
@@ -7229,34 +7327,34 @@
         <v>18</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="L68" s="11" t="s">
-        <v>464</v>
+        <v>73</v>
+      </c>
+      <c r="L68" s="26">
+        <v>2700</v>
       </c>
       <c r="M68" s="26">
         <v>2700</v>
       </c>
-      <c r="N68" s="26">
-        <v>2700</v>
-      </c>
-      <c r="O68" s="31">
+      <c r="N68" s="31">
         <f t="shared" si="5"/>
         <v>2700</v>
       </c>
-      <c r="P68" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q68" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O68" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P68" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q68" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="R68" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>465</v>
+        <v>564</v>
       </c>
       <c r="C69" s="10">
         <v>530</v>
@@ -7284,35 +7382,36 @@
         <v>8</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="L69" s="11" t="s">
-        <v>466</v>
+        <v>256</v>
+      </c>
+      <c r="L69" s="26">
+        <v>40000</v>
       </c>
       <c r="M69" s="26">
-        <v>40000</v>
-      </c>
-      <c r="N69" s="26">
         <v>60000</v>
       </c>
-      <c r="O69" s="31">
+      <c r="N69" s="31">
         <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="P69" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q69" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="13" customFormat="1" ht="176.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O69" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P69" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q69" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="R69" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="13" customFormat="1" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>467</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B70" s="64"/>
       <c r="C70" s="13">
         <v>92</v>
       </c>
@@ -7339,34 +7438,37 @@
         <v>15</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="L70" s="12" t="s">
-        <v>468</v>
+        <v>158</v>
+      </c>
+      <c r="L70" s="27">
+        <v>40000</v>
       </c>
       <c r="M70" s="27">
-        <v>40000</v>
-      </c>
-      <c r="N70" s="27">
         <v>70000</v>
       </c>
-      <c r="O70" s="31">
+      <c r="N70" s="31">
         <f t="shared" si="5"/>
         <v>55000</v>
       </c>
-      <c r="P70" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q70" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="180.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O70" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="P70" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q70" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="R70" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>469</v>
+        <v>582</v>
+      </c>
+      <c r="B71" s="64" t="s">
+        <v>521</v>
       </c>
       <c r="C71" s="10">
         <v>630</v>
@@ -7394,34 +7496,34 @@
         <v>1</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L71" s="11" t="s">
-        <v>470</v>
+        <v>68</v>
+      </c>
+      <c r="L71" s="26">
+        <v>2000</v>
       </c>
       <c r="M71" s="26">
-        <v>2000</v>
-      </c>
-      <c r="N71" s="26">
         <v>3000</v>
       </c>
-      <c r="O71" s="31">
+      <c r="N71" s="31">
         <f t="shared" si="5"/>
         <v>2500</v>
       </c>
-      <c r="P71" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q71" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="189.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O71" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P71" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q71" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="R71" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="189.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>471</v>
+        <v>129</v>
       </c>
       <c r="C72" s="10">
         <v>700</v>
@@ -7449,34 +7551,37 @@
         <v>14</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="L72" s="11" t="s">
-        <v>472</v>
+        <v>159</v>
+      </c>
+      <c r="L72" s="26">
+        <v>1000000</v>
       </c>
       <c r="M72" s="26">
-        <v>1000000</v>
-      </c>
-      <c r="N72" s="26">
         <v>1800000</v>
       </c>
-      <c r="O72" s="31">
+      <c r="N72" s="31">
         <f t="shared" si="5"/>
         <v>1400000</v>
       </c>
-      <c r="P72" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q72" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="287.35000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O72" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="P72" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q72" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="R72" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="287.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>571</v>
+        <v>582</v>
+      </c>
+      <c r="B73" s="64" t="s">
+        <v>521</v>
       </c>
       <c r="C73" s="10">
         <v>630</v>
@@ -7504,34 +7609,34 @@
         <v>31</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="L73" s="11" t="s">
-        <v>473</v>
+        <v>156</v>
+      </c>
+      <c r="L73" s="26">
+        <v>10000</v>
       </c>
       <c r="M73" s="26">
-        <v>10000</v>
-      </c>
-      <c r="N73" s="26">
         <v>20000</v>
       </c>
-      <c r="O73" s="31">
+      <c r="N73" s="31">
         <f t="shared" si="5"/>
         <v>15000</v>
       </c>
-      <c r="P73" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q73" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" ht="206.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O73" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q73" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="R73" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="206.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>534</v>
+        <v>583</v>
       </c>
       <c r="C74" s="10">
         <v>652</v>
@@ -7546,7 +7651,7 @@
         <v>1979</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H74" s="10">
         <v>2</v>
@@ -7559,40 +7664,43 @@
         <v>6</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="L74" s="11" t="s">
-        <v>474</v>
+        <v>155</v>
+      </c>
+      <c r="L74" s="26">
+        <v>10000</v>
       </c>
       <c r="M74" s="26">
-        <v>10000</v>
-      </c>
-      <c r="N74" s="26">
         <v>25000</v>
       </c>
-      <c r="O74" s="31">
+      <c r="N74" s="31">
         <f t="shared" si="5"/>
         <v>17500</v>
       </c>
-      <c r="P74" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q74" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O74" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="P74" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q74" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="R74" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="207" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>539</v>
+        <v>584</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>586</v>
       </c>
       <c r="C75" s="10">
         <v>771</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="E75" s="10">
         <v>3</v>
@@ -7614,34 +7722,34 @@
         <v>17</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="L75" s="11" t="s">
-        <v>475</v>
+        <v>211</v>
+      </c>
+      <c r="L75" s="26">
+        <v>2000</v>
       </c>
       <c r="M75" s="26">
-        <v>2000</v>
-      </c>
-      <c r="N75" s="26">
         <v>2500</v>
       </c>
-      <c r="O75" s="31">
+      <c r="N75" s="31">
         <f t="shared" si="5"/>
         <v>2250</v>
       </c>
-      <c r="P75" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q75" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="307.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O75" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="P75" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q75" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="R75" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="307.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>626</v>
+        <v>585</v>
       </c>
       <c r="C76" s="10">
         <v>135</v>
@@ -7669,34 +7777,34 @@
         <v>12</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="L76" s="11" t="s">
-        <v>477</v>
+        <v>244</v>
+      </c>
+      <c r="L76" s="26">
+        <v>25000</v>
       </c>
       <c r="M76" s="26">
         <v>25000</v>
       </c>
-      <c r="N76" s="26">
-        <v>25000</v>
-      </c>
-      <c r="O76" s="31">
+      <c r="N76" s="31">
         <f t="shared" si="5"/>
         <v>25000</v>
       </c>
-      <c r="P76" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q76" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O76" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="P76" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q76" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="R76" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="246.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>625</v>
+        <v>573</v>
       </c>
       <c r="C77" s="10">
         <v>475</v>
@@ -7724,34 +7832,37 @@
         <v>0</v>
       </c>
       <c r="K77" s="51" t="s">
-        <v>349</v>
-      </c>
-      <c r="L77" s="11" t="s">
-        <v>476</v>
+        <v>253</v>
+      </c>
+      <c r="L77" s="26">
+        <v>4000</v>
       </c>
       <c r="M77" s="26">
-        <v>4000</v>
-      </c>
-      <c r="N77" s="26">
         <v>4200</v>
       </c>
-      <c r="O77" s="31">
+      <c r="N77" s="31">
         <f t="shared" si="5"/>
         <v>4100</v>
       </c>
-      <c r="P77" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q77" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O77" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="P77" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q77" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="R77" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="209.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>478</v>
+        <v>576</v>
+      </c>
+      <c r="B78" s="64" t="s">
+        <v>551</v>
       </c>
       <c r="C78" s="10">
         <v>500</v>
@@ -7779,34 +7890,34 @@
         <v>5</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="L78" s="11" t="s">
-        <v>479</v>
+        <v>157</v>
+      </c>
+      <c r="L78" s="26">
+        <v>200000</v>
       </c>
       <c r="M78" s="26">
-        <v>200000</v>
-      </c>
-      <c r="N78" s="26">
         <v>300000</v>
       </c>
-      <c r="O78" s="31">
+      <c r="N78" s="31">
         <f t="shared" si="5"/>
         <v>250000</v>
       </c>
-      <c r="P78" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q78" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" ht="180.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O78" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="P78" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q78" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="R78" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="C79" s="10">
         <v>93</v>
@@ -7834,34 +7945,34 @@
         <v>7</v>
       </c>
       <c r="K79" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="L79" s="11" t="s">
-        <v>480</v>
+        <v>246</v>
+      </c>
+      <c r="L79" s="26">
+        <v>1000</v>
       </c>
       <c r="M79" s="26">
-        <v>1000</v>
-      </c>
-      <c r="N79" s="26">
         <v>2000</v>
       </c>
-      <c r="O79" s="31">
+      <c r="N79" s="31">
         <f t="shared" si="5"/>
         <v>1500</v>
       </c>
-      <c r="P79" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q79" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" ht="180.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O79" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="P79" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q79" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="R79" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>481</v>
+        <v>141</v>
       </c>
       <c r="C80" s="10">
         <v>552</v>
@@ -7889,34 +8000,34 @@
         <v>5</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="L80" s="11" t="s">
-        <v>482</v>
+        <v>242</v>
+      </c>
+      <c r="L80" s="26">
+        <v>20000</v>
       </c>
       <c r="M80" s="26">
         <v>20000</v>
       </c>
-      <c r="N80" s="26">
-        <v>20000</v>
-      </c>
-      <c r="O80" s="31">
+      <c r="N80" s="31">
         <f t="shared" si="5"/>
         <v>20000</v>
       </c>
-      <c r="P80" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q80" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" ht="180.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O80" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="P80" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q80" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="R80" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="C81" s="10">
         <v>520</v>
@@ -7944,34 +8055,34 @@
         <v>8</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="L81" s="11" t="s">
-        <v>483</v>
+        <v>153</v>
+      </c>
+      <c r="L81" s="26">
+        <v>55000</v>
       </c>
       <c r="M81" s="26">
         <v>55000</v>
       </c>
-      <c r="N81" s="26">
-        <v>55000</v>
-      </c>
-      <c r="O81" s="31">
+      <c r="N81" s="31">
         <f t="shared" si="5"/>
         <v>55000</v>
       </c>
-      <c r="P81" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q81" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" ht="215.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O81" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="P81" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q81" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R81" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>484</v>
+        <v>588</v>
       </c>
       <c r="C82" s="10">
         <v>483</v>
@@ -7999,34 +8110,34 @@
         <v>8</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="L82" s="11" t="s">
-        <v>137</v>
+        <v>272</v>
+      </c>
+      <c r="L82" s="26">
+        <v>12000</v>
       </c>
       <c r="M82" s="26">
-        <v>12000</v>
-      </c>
-      <c r="N82" s="26">
         <v>40000</v>
       </c>
-      <c r="O82" s="31">
+      <c r="N82" s="31">
         <f t="shared" si="5"/>
         <v>26000</v>
       </c>
-      <c r="P82" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q82" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O82" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="P82" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q82" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R82" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="189" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>485</v>
+        <v>139</v>
       </c>
       <c r="C83" s="10">
         <v>625</v>
@@ -8054,35 +8165,36 @@
         <v>22</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="L83" s="14" t="s">
-        <v>486</v>
+        <v>154</v>
+      </c>
+      <c r="L83" s="26">
+        <v>1500000</v>
       </c>
       <c r="M83" s="26">
-        <v>1500000</v>
-      </c>
-      <c r="N83" s="26">
         <v>2000000</v>
       </c>
-      <c r="O83" s="31">
+      <c r="N83" s="31">
         <f t="shared" si="5"/>
         <v>1750000</v>
       </c>
-      <c r="P83" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q83" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" ht="213.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O83" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="P83" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q83" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="R83" s="14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="213.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>487</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="B84" s="66"/>
       <c r="C84" s="10">
         <v>780</v>
       </c>
@@ -8109,35 +8221,36 @@
         <v>19</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L84" s="11" t="s">
-        <v>82</v>
+        <v>70</v>
+      </c>
+      <c r="L84" s="26">
+        <v>12000</v>
       </c>
       <c r="M84" s="26">
-        <v>12000</v>
-      </c>
-      <c r="N84" s="26">
         <v>20000</v>
       </c>
-      <c r="O84" s="31">
+      <c r="N84" s="31">
         <f t="shared" si="5"/>
         <v>16000</v>
       </c>
-      <c r="P84" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q84" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" s="13" customFormat="1" ht="208.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O84" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P84" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q84" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="R84" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" s="13" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>488</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="B85" s="64"/>
       <c r="C85" s="10">
         <v>750</v>
       </c>
@@ -8164,35 +8277,36 @@
         <v>10</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="L85" s="11" t="s">
-        <v>489</v>
+        <v>240</v>
+      </c>
+      <c r="L85" s="26">
+        <v>3000</v>
       </c>
       <c r="M85" s="26">
         <v>3000</v>
       </c>
-      <c r="N85" s="26">
-        <v>3000</v>
-      </c>
-      <c r="O85" s="31">
+      <c r="N85" s="31">
         <f t="shared" si="5"/>
         <v>3000</v>
       </c>
-      <c r="P85" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q85" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" s="13" customFormat="1" ht="318.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O85" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="P85" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q85" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="R85" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" s="13" customFormat="1" ht="318" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>490</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="B86" s="64"/>
       <c r="C86" s="10">
         <v>640</v>
       </c>
@@ -8219,35 +8333,36 @@
         <v>15</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>491</v>
+        <v>23</v>
+      </c>
+      <c r="L86" s="26">
+        <v>17500</v>
       </c>
       <c r="M86" s="26">
         <v>17500</v>
       </c>
-      <c r="N86" s="26">
-        <v>17500</v>
-      </c>
-      <c r="O86" s="31">
+      <c r="N86" s="31">
         <f t="shared" si="5"/>
         <v>17500</v>
       </c>
-      <c r="P86" s="28" t="s">
-        <v>115</v>
+      <c r="O86" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="P86" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="Q86" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" s="13" customFormat="1" ht="318.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="R86" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" s="13" customFormat="1" ht="318" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>6</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B87" s="64"/>
       <c r="C87" s="13">
         <v>680</v>
       </c>
@@ -8274,35 +8389,36 @@
         <v>0</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L87" s="12" t="s">
-        <v>492</v>
+        <v>6</v>
+      </c>
+      <c r="L87" s="27">
+        <v>1000</v>
       </c>
       <c r="M87" s="27">
-        <v>1000</v>
-      </c>
-      <c r="N87" s="27">
         <v>2000</v>
       </c>
-      <c r="O87" s="31">
-        <f t="shared" ref="O87:O118" si="7">AVERAGE(M87:N87)</f>
+      <c r="N87" s="31">
+        <f t="shared" ref="N87:N118" si="7">AVERAGE(L87:M87)</f>
         <v>1500</v>
       </c>
-      <c r="P87" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q87" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" s="13" customFormat="1" ht="318.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O87" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="P87" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q87" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="R87" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" s="13" customFormat="1" ht="318" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>551</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="B88" s="64"/>
       <c r="C88" s="13">
         <v>500</v>
       </c>
@@ -8329,34 +8445,37 @@
         <v>20</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="L88" s="12" t="s">
-        <v>493</v>
+        <v>237</v>
+      </c>
+      <c r="L88" s="27">
+        <v>1000</v>
       </c>
       <c r="M88" s="27">
-        <v>1000</v>
-      </c>
-      <c r="N88" s="27">
         <v>2000</v>
       </c>
-      <c r="O88" s="31">
+      <c r="N88" s="31">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
-      <c r="P88" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q88" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" ht="249.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O88" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="P88" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q88" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="R88" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="249.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>580</v>
+        <v>538</v>
+      </c>
+      <c r="B89" s="64" t="s">
+        <v>521</v>
       </c>
       <c r="C89" s="13">
         <v>775</v>
@@ -8384,35 +8503,36 @@
         <v>0</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="L89" s="11" t="s">
-        <v>494</v>
+        <v>254</v>
+      </c>
+      <c r="L89" s="27">
+        <v>3000</v>
       </c>
       <c r="M89" s="27">
         <v>3000</v>
       </c>
-      <c r="N89" s="27">
-        <v>3000</v>
-      </c>
-      <c r="O89" s="31">
+      <c r="N89" s="31">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
-      <c r="P89" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q89" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" s="56" customFormat="1" ht="185.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O89" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="P89" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q89" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="R89" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" s="56" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>495</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B90" s="64"/>
       <c r="C90" s="56">
         <v>516</v>
       </c>
@@ -8439,34 +8559,34 @@
         <v>17</v>
       </c>
       <c r="K90" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="L90" s="55" t="s">
-        <v>496</v>
+        <v>49</v>
+      </c>
+      <c r="L90" s="61">
+        <v>150000</v>
       </c>
       <c r="M90" s="61">
-        <v>150000</v>
-      </c>
-      <c r="N90" s="61">
         <v>200000</v>
       </c>
-      <c r="O90" s="33">
+      <c r="N90" s="33">
         <f t="shared" si="7"/>
         <v>175000</v>
       </c>
-      <c r="P90" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q90" s="55" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" ht="286.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O90" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="P90" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q90" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="R90" s="55" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="286.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>577</v>
+        <v>442</v>
       </c>
       <c r="C91" s="54">
         <v>780</v>
@@ -8494,40 +8614,40 @@
         <v>4</v>
       </c>
       <c r="K91" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="L91" s="12" t="s">
-        <v>501</v>
+        <v>152</v>
+      </c>
+      <c r="L91" s="52">
+        <v>25000</v>
       </c>
       <c r="M91" s="52">
-        <v>25000</v>
-      </c>
-      <c r="N91" s="52">
         <v>60000</v>
       </c>
-      <c r="O91" s="31">
+      <c r="N91" s="31">
         <f t="shared" si="7"/>
         <v>42500</v>
       </c>
-      <c r="P91" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q91" s="51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O91" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="P91" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q91" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="R91" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>497</v>
+        <v>591</v>
       </c>
       <c r="C92" s="56">
         <v>910</v>
       </c>
       <c r="D92" s="56" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="E92" s="16">
         <v>12</v>
@@ -8549,40 +8669,41 @@
         <v>10</v>
       </c>
       <c r="K92" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="L92" s="55" t="s">
-        <v>498</v>
+        <v>11</v>
+      </c>
+      <c r="L92" s="61">
+        <v>7500</v>
       </c>
       <c r="M92" s="61">
-        <v>7500</v>
-      </c>
-      <c r="N92" s="61">
         <v>15000</v>
       </c>
-      <c r="O92" s="31">
+      <c r="N92" s="31">
         <f t="shared" si="7"/>
         <v>11250</v>
       </c>
-      <c r="P92" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q92" s="55" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O92" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="P92" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q92" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="R92" s="55" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B93" s="48" t="s">
-        <v>499</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="B93" s="66"/>
       <c r="C93" s="49">
         <v>850</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="E93" s="58">
         <v>5</v>
@@ -8604,35 +8725,36 @@
         <v>16</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L93" s="51" t="s">
-        <v>500</v>
+        <v>12</v>
+      </c>
+      <c r="L93" s="26">
+        <v>7000</v>
       </c>
       <c r="M93" s="26">
-        <v>7000</v>
-      </c>
-      <c r="N93" s="26">
         <v>11000</v>
       </c>
-      <c r="O93" s="31">
+      <c r="N93" s="31">
         <f t="shared" si="7"/>
         <v>9000</v>
       </c>
-      <c r="P93" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q93" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" ht="267.55" x14ac:dyDescent="0.25">
+      <c r="O93" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P93" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q93" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="R93" s="51" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="260" x14ac:dyDescent="0.15">
       <c r="A94" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>322</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B94" s="66"/>
       <c r="C94" s="9">
         <v>360</v>
       </c>
@@ -8659,34 +8781,37 @@
         <v>0</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="L94" s="11" t="s">
-        <v>503</v>
+        <v>231</v>
+      </c>
+      <c r="L94" s="26">
+        <v>1000</v>
       </c>
       <c r="M94" s="26">
         <v>1000</v>
       </c>
-      <c r="N94" s="26">
-        <v>1000</v>
-      </c>
-      <c r="O94" s="31">
+      <c r="N94" s="31">
         <f t="shared" si="7"/>
         <v>1000</v>
       </c>
-      <c r="P94" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q94" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="O94" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="P94" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q94" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="R94" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="409" x14ac:dyDescent="0.15">
       <c r="A95" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>504</v>
+        <v>592</v>
+      </c>
+      <c r="B95" s="64" t="s">
+        <v>551</v>
       </c>
       <c r="C95" s="10">
         <v>450</v>
@@ -8714,33 +8839,33 @@
         <v>1</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L95" s="12" t="s">
-        <v>505</v>
+        <v>16</v>
+      </c>
+      <c r="L95" s="26">
+        <v>7500</v>
       </c>
       <c r="M95" s="26">
-        <v>7500</v>
-      </c>
-      <c r="N95" s="26">
         <v>15000</v>
       </c>
-      <c r="O95" s="31">
+      <c r="N95" s="31">
         <f t="shared" si="7"/>
         <v>11250</v>
       </c>
-      <c r="P95" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q95" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" ht="144.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O95" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="P95" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q95" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="R95" s="12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="144.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="B96" s="20" t="s">
         <v>589</v>
       </c>
       <c r="C96" s="10">
@@ -8769,34 +8894,34 @@
         <v>21</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L96" s="12" t="s">
-        <v>506</v>
+        <v>21</v>
+      </c>
+      <c r="L96" s="26">
+        <v>30000</v>
       </c>
       <c r="M96" s="26">
         <v>30000</v>
       </c>
-      <c r="N96" s="26">
-        <v>30000</v>
-      </c>
-      <c r="O96" s="31">
+      <c r="N96" s="31">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="P96" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q96" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O96" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P96" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q96" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="R96" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="210.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>605</v>
+        <v>136</v>
       </c>
       <c r="C97" s="10">
         <v>517</v>
@@ -8824,34 +8949,34 @@
         <v>4</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="L97" s="14" t="s">
-        <v>508</v>
+        <v>150</v>
+      </c>
+      <c r="L97" s="26">
+        <v>500000</v>
       </c>
       <c r="M97" s="26">
-        <v>500000</v>
-      </c>
-      <c r="N97" s="26">
         <v>800000</v>
       </c>
-      <c r="O97" s="31">
+      <c r="N97" s="31">
         <f t="shared" si="7"/>
         <v>650000</v>
       </c>
-      <c r="P97" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q97" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" ht="266.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O97" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P97" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q97" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="R97" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="267" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C98" s="10">
         <v>475</v>
@@ -8879,34 +9004,34 @@
         <v>19</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L98" s="11" t="s">
-        <v>507</v>
+        <v>50</v>
+      </c>
+      <c r="L98" s="26">
+        <v>4500</v>
       </c>
       <c r="M98" s="26">
         <v>4500</v>
       </c>
-      <c r="N98" s="26">
-        <v>4500</v>
-      </c>
-      <c r="O98" s="31">
+      <c r="N98" s="31">
         <f t="shared" si="7"/>
         <v>4500</v>
       </c>
-      <c r="P98" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q98" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" ht="255.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O98" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="P98" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q98" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="R98" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="255" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>27</v>
+        <v>556</v>
       </c>
       <c r="C99" s="10">
         <v>645</v>
@@ -8934,34 +9059,34 @@
         <v>12</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="L99" s="51" t="s">
-        <v>511</v>
+        <v>212</v>
+      </c>
+      <c r="L99" s="26">
+        <v>30000</v>
       </c>
       <c r="M99" s="26">
-        <v>30000</v>
-      </c>
-      <c r="N99" s="26">
         <v>60000</v>
       </c>
-      <c r="O99" s="31">
+      <c r="N99" s="31">
         <f t="shared" si="7"/>
         <v>45000</v>
       </c>
-      <c r="P99" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q99" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O99" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="P99" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q99" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R99" s="51" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>599</v>
+        <v>137</v>
       </c>
       <c r="C100" s="10">
         <v>451</v>
@@ -8989,34 +9114,34 @@
         <v>11</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="L100" s="25" t="s">
-        <v>510</v>
+        <v>261</v>
+      </c>
+      <c r="L100" s="26">
+        <v>2000</v>
       </c>
       <c r="M100" s="26">
-        <v>2000</v>
-      </c>
-      <c r="N100" s="26">
         <v>7000</v>
       </c>
-      <c r="O100" s="31">
+      <c r="N100" s="31">
         <f t="shared" si="7"/>
         <v>4500</v>
       </c>
-      <c r="P100" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q100" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" ht="290.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O100" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="P100" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q100" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="R100" s="25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="C101" s="10">
         <v>615</v>
@@ -9044,34 +9169,37 @@
         <v>14</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L101" s="11" t="s">
-        <v>538</v>
+        <v>27</v>
+      </c>
+      <c r="L101" s="26">
+        <v>25000</v>
       </c>
       <c r="M101" s="26">
-        <v>25000</v>
-      </c>
-      <c r="N101" s="26">
         <v>50000</v>
       </c>
-      <c r="O101" s="31">
+      <c r="N101" s="31">
         <f t="shared" si="7"/>
         <v>37500</v>
       </c>
-      <c r="P101" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q101" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" ht="311.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O101" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P101" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q101" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="R101" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="312" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>512</v>
+        <v>529</v>
+      </c>
+      <c r="B102" s="64" t="s">
+        <v>551</v>
       </c>
       <c r="C102" s="10">
         <v>346</v>
@@ -9099,34 +9227,34 @@
         <v>1</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="L102" s="8" t="s">
-        <v>513</v>
+        <v>228</v>
+      </c>
+      <c r="L102" s="26">
+        <v>3000</v>
       </c>
       <c r="M102" s="26">
-        <v>3000</v>
-      </c>
-      <c r="N102" s="26">
         <v>4000</v>
       </c>
-      <c r="O102" s="31">
+      <c r="N102" s="31">
         <f t="shared" si="7"/>
         <v>3500</v>
       </c>
-      <c r="P102" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q102" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" ht="311.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O102" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="P102" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q102" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="R102" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="312" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="24" t="s">
-        <v>601</v>
-      </c>
-      <c r="B103" s="51" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C103" s="10">
         <v>373</v>
@@ -9154,34 +9282,37 @@
         <v>3</v>
       </c>
       <c r="K103" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="L103" s="48" t="s">
-        <v>600</v>
+        <v>235</v>
+      </c>
+      <c r="L103" s="26">
+        <v>1500</v>
       </c>
       <c r="M103" s="26">
         <v>1500</v>
       </c>
-      <c r="N103" s="26">
-        <v>1500</v>
-      </c>
-      <c r="O103" s="31">
+      <c r="N103" s="31">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
-      <c r="P103" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q103" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" ht="224.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O103" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="P103" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q103" s="51" t="s">
+        <v>489</v>
+      </c>
+      <c r="R103" s="48" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="224.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B104" s="48" t="s">
-        <v>514</v>
+        <v>554</v>
+      </c>
+      <c r="B104" s="64" t="s">
+        <v>521</v>
       </c>
       <c r="C104" s="10">
         <v>41</v>
@@ -9209,34 +9340,37 @@
         <v>3</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L104" s="51" t="s">
-        <v>515</v>
+        <v>19</v>
+      </c>
+      <c r="L104" s="26">
+        <v>3000</v>
       </c>
       <c r="M104" s="26">
-        <v>3000</v>
-      </c>
-      <c r="N104" s="26">
         <v>4000</v>
       </c>
-      <c r="O104" s="31">
+      <c r="N104" s="31">
         <f t="shared" si="7"/>
         <v>3500</v>
       </c>
-      <c r="P104" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q104" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" ht="230.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O104" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P104" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q104" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="R104" s="51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="231" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>629</v>
+        <v>588</v>
+      </c>
+      <c r="B105" s="64" t="s">
+        <v>595</v>
       </c>
       <c r="C105" s="10">
         <v>483</v>
@@ -9264,34 +9398,34 @@
         <v>12</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="L105" s="55" t="s">
-        <v>509</v>
+        <v>271</v>
+      </c>
+      <c r="L105" s="26">
+        <v>1000</v>
       </c>
       <c r="M105" s="26">
-        <v>1000</v>
-      </c>
-      <c r="N105" s="26">
         <v>2000</v>
       </c>
-      <c r="O105" s="31">
+      <c r="N105" s="31">
         <f t="shared" si="7"/>
         <v>1500</v>
       </c>
-      <c r="P105" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q105" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" ht="242.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O105" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="P105" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q105" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="R105" s="55" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="242.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="C106" s="10">
         <v>346</v>
@@ -9319,34 +9453,34 @@
         <v>3</v>
       </c>
       <c r="K106" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="L106" s="11" t="s">
-        <v>517</v>
+        <v>151</v>
+      </c>
+      <c r="L106" s="26">
+        <v>145000</v>
       </c>
       <c r="M106" s="26">
         <v>145000</v>
       </c>
-      <c r="N106" s="26">
-        <v>145000</v>
-      </c>
-      <c r="O106" s="31">
+      <c r="N106" s="31">
         <f t="shared" si="7"/>
         <v>145000</v>
       </c>
-      <c r="P106" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q106" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" ht="311.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O106" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="P106" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q106" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="R106" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" ht="312" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>518</v>
+        <v>129</v>
       </c>
       <c r="C107" s="10">
         <v>700</v>
@@ -9374,34 +9508,34 @@
         <v>4</v>
       </c>
       <c r="K107" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="L107" s="25" t="s">
-        <v>519</v>
+        <v>220</v>
+      </c>
+      <c r="L107" s="26">
+        <v>2500</v>
       </c>
       <c r="M107" s="26">
-        <v>2500</v>
-      </c>
-      <c r="N107" s="26">
         <v>10000</v>
       </c>
-      <c r="O107" s="31">
+      <c r="N107" s="31">
         <f t="shared" si="7"/>
         <v>6250</v>
       </c>
-      <c r="P107" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q107" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="226.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O107" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="P107" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q107" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="R107" s="25" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="226.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>520</v>
+        <v>596</v>
       </c>
       <c r="C108" s="10">
         <v>702</v>
@@ -9429,34 +9563,34 @@
         <v>5</v>
       </c>
       <c r="K108" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="L108" s="8" t="s">
-        <v>521</v>
+        <v>233</v>
+      </c>
+      <c r="L108" s="26">
+        <v>10000</v>
       </c>
       <c r="M108" s="26">
-        <v>10000</v>
-      </c>
-      <c r="N108" s="26">
         <v>25000</v>
       </c>
-      <c r="O108" s="31">
+      <c r="N108" s="31">
         <f t="shared" si="7"/>
         <v>17500</v>
       </c>
-      <c r="P108" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q108" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="180.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O108" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P108" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q108" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="R108" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>316</v>
+        <v>597</v>
       </c>
       <c r="C109" s="10">
         <v>372</v>
@@ -9484,34 +9618,34 @@
         <v>1</v>
       </c>
       <c r="K109" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="L109" s="25" t="s">
-        <v>522</v>
+        <v>222</v>
+      </c>
+      <c r="L109" s="26">
+        <v>2000</v>
       </c>
       <c r="M109" s="26">
         <v>2000</v>
       </c>
-      <c r="N109" s="26">
-        <v>2000</v>
-      </c>
-      <c r="O109" s="31">
+      <c r="N109" s="31">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="P109" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q109" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" ht="243" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O109" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="P109" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q109" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="R109" s="25" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" ht="243" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B110" s="48" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C110" s="54">
         <v>490</v>
@@ -9539,34 +9673,34 @@
         <v>4</v>
       </c>
       <c r="K110" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="L110" s="51" t="s">
-        <v>523</v>
+        <v>37</v>
+      </c>
+      <c r="L110" s="52">
+        <v>8000</v>
       </c>
       <c r="M110" s="52">
-        <v>8000</v>
-      </c>
-      <c r="N110" s="52">
         <v>10000</v>
       </c>
-      <c r="O110" s="31">
+      <c r="N110" s="31">
         <f t="shared" si="7"/>
         <v>9000</v>
       </c>
-      <c r="P110" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q110" s="51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="309.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O110" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="P110" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q110" s="48" t="s">
+        <v>491</v>
+      </c>
+      <c r="R110" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="309.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="24" t="s">
-        <v>636</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C111" s="56">
         <v>484</v>
@@ -9594,34 +9728,34 @@
         <v>4</v>
       </c>
       <c r="K111" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="L111" s="55" t="s">
-        <v>541</v>
+        <v>35</v>
+      </c>
+      <c r="L111" s="61">
+        <v>5000</v>
       </c>
       <c r="M111" s="61">
         <v>5000</v>
       </c>
-      <c r="N111" s="61">
-        <v>5000</v>
-      </c>
-      <c r="O111" s="31">
+      <c r="N111" s="31">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="P111" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q111" s="55" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="234" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O111" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P111" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q111" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="R111" s="55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="234" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>524</v>
+        <v>136</v>
       </c>
       <c r="C112" s="10">
         <v>517</v>
@@ -9649,34 +9783,34 @@
         <v>5</v>
       </c>
       <c r="K112" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="L112" s="25" t="s">
-        <v>362</v>
+        <v>267</v>
+      </c>
+      <c r="L112" s="26">
+        <v>13000</v>
       </c>
       <c r="M112" s="26">
         <v>13000</v>
       </c>
-      <c r="N112" s="26">
-        <v>13000</v>
-      </c>
-      <c r="O112" s="31">
+      <c r="N112" s="31">
         <f t="shared" si="7"/>
         <v>13000</v>
       </c>
-      <c r="P112" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q112" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O112" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="P112" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q112" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="R112" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" ht="174.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>562</v>
+        <v>600</v>
       </c>
       <c r="C113" s="10">
         <v>365</v>
@@ -9704,40 +9838,41 @@
         <v>15</v>
       </c>
       <c r="K113" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="L113" s="25" t="s">
-        <v>360</v>
+        <v>264</v>
+      </c>
+      <c r="L113" s="26">
+        <v>55000</v>
       </c>
       <c r="M113" s="26">
-        <v>55000</v>
-      </c>
-      <c r="N113" s="26">
         <v>70000</v>
       </c>
-      <c r="O113" s="31">
+      <c r="N113" s="31">
         <f t="shared" si="7"/>
         <v>62500</v>
       </c>
-      <c r="P113" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q113" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" s="13" customFormat="1" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O113" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="P113" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q113" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="R113" s="25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" s="13" customFormat="1" ht="174.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>543</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="B114" s="64"/>
       <c r="C114" s="10">
         <v>790</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="E114" s="5">
         <v>11</v>
@@ -9759,35 +9894,36 @@
         <v>11</v>
       </c>
       <c r="K114" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L114" s="11" t="s">
-        <v>525</v>
+        <v>29</v>
+      </c>
+      <c r="L114" s="26">
+        <v>7000</v>
       </c>
       <c r="M114" s="26">
         <v>7000</v>
       </c>
-      <c r="N114" s="26">
-        <v>7000</v>
-      </c>
-      <c r="O114" s="31">
+      <c r="N114" s="31">
         <f t="shared" si="7"/>
         <v>7000</v>
       </c>
-      <c r="P114" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q114" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" s="13" customFormat="1" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O114" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="P114" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q114" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="R114" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" s="13" customFormat="1" ht="174.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>366</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B115" s="64"/>
       <c r="C115" s="10">
         <v>700</v>
       </c>
@@ -9814,34 +9950,34 @@
         <v>5</v>
       </c>
       <c r="K115" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="L115" s="11" t="s">
-        <v>526</v>
+        <v>270</v>
+      </c>
+      <c r="L115" s="26">
+        <v>5000</v>
       </c>
       <c r="M115" s="26">
-        <v>5000</v>
-      </c>
-      <c r="N115" s="26">
         <v>10000</v>
       </c>
-      <c r="O115" s="31">
+      <c r="N115" s="31">
         <f t="shared" si="7"/>
         <v>7500</v>
       </c>
-      <c r="P115" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q115" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" ht="291.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O115" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="P115" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q115" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="R115" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" ht="291" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="C116" s="13">
         <v>484</v>
@@ -9869,34 +10005,34 @@
         <v>6</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L116" s="12" t="s">
-        <v>527</v>
+        <v>36</v>
+      </c>
+      <c r="L116" s="27">
+        <v>3000</v>
       </c>
       <c r="M116" s="27">
-        <v>3000</v>
-      </c>
-      <c r="N116" s="27">
         <v>5000</v>
       </c>
-      <c r="O116" s="31">
+      <c r="N116" s="31">
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-      <c r="P116" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q116" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" ht="269.35000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O116" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="P116" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q116" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="R116" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" ht="269.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="24" t="s">
-        <v>614</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>37</v>
+        <v>603</v>
       </c>
       <c r="C117" s="10">
         <v>347</v>
@@ -9924,34 +10060,34 @@
         <v>1</v>
       </c>
       <c r="K117" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="L117" s="11" t="s">
-        <v>528</v>
+        <v>149</v>
+      </c>
+      <c r="L117" s="26">
+        <v>10000</v>
       </c>
       <c r="M117" s="26">
         <v>10000</v>
       </c>
-      <c r="N117" s="26">
-        <v>10000</v>
-      </c>
-      <c r="O117" s="31">
+      <c r="N117" s="31">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="P117" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q117" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O117" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P117" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q117" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R117" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" ht="241.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="C118" s="10">
         <v>490</v>
@@ -9966,47 +10102,47 @@
         <v>1998</v>
       </c>
       <c r="G118" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H118" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="I118" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="J118" s="10" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L118" s="11" t="s">
-        <v>529</v>
+        <v>41</v>
+      </c>
+      <c r="L118" s="26">
+        <v>100000</v>
       </c>
       <c r="M118" s="26">
         <v>100000</v>
       </c>
-      <c r="N118" s="26">
-        <v>100000</v>
-      </c>
-      <c r="O118" s="31">
+      <c r="N118" s="31">
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="P118" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q118" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" ht="230.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O118" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="P118" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q118" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="R118" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="231" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="24" t="s">
-        <v>637</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="C119" s="10">
         <v>450</v>
@@ -10034,40 +10170,40 @@
         <v>4</v>
       </c>
       <c r="K119" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L119" s="11" t="s">
-        <v>530</v>
+        <v>17</v>
+      </c>
+      <c r="L119" s="26">
+        <v>1000</v>
       </c>
       <c r="M119" s="26">
         <v>1000</v>
       </c>
-      <c r="N119" s="26">
+      <c r="N119" s="31">
+        <f t="shared" ref="N119:N129" si="9">AVERAGE(L119:M119)</f>
         <v>1000</v>
       </c>
-      <c r="O119" s="31">
-        <f t="shared" ref="O119:O129" si="9">AVERAGE(M119:N119)</f>
-        <v>1000</v>
-      </c>
-      <c r="P119" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q119" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O119" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P119" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q119" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="R119" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" ht="250.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>608</v>
+        <v>139</v>
       </c>
       <c r="C120" s="10">
         <v>625</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="E120" s="10">
         <v>7</v>
@@ -10076,47 +10212,47 @@
         <v>2003</v>
       </c>
       <c r="G120" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H120" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="I120" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="J120" s="10" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K120" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="L120" s="11" t="s">
-        <v>578</v>
+        <v>173</v>
+      </c>
+      <c r="L120" s="26">
+        <v>200000</v>
       </c>
       <c r="M120" s="26">
-        <v>200000</v>
-      </c>
-      <c r="N120" s="26">
         <v>300000</v>
       </c>
-      <c r="O120" s="31">
+      <c r="N120" s="31">
         <f t="shared" si="9"/>
         <v>250000</v>
       </c>
-      <c r="P120" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q120" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O120" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="P120" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q120" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="R120" s="11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" ht="250.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>550</v>
+        <v>442</v>
       </c>
       <c r="C121" s="10">
         <v>780</v>
@@ -10144,35 +10280,36 @@
         <v>0</v>
       </c>
       <c r="K121" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="L121" s="11" t="s">
-        <v>548</v>
+        <v>445</v>
+      </c>
+      <c r="L121" s="26">
+        <v>3000</v>
       </c>
       <c r="M121" s="26">
-        <v>3000</v>
-      </c>
-      <c r="N121" s="26">
         <v>20000</v>
       </c>
-      <c r="O121" s="31">
+      <c r="N121" s="31">
         <f t="shared" si="9"/>
         <v>11500</v>
       </c>
-      <c r="P121" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q121" s="11" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" s="54" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O121" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P121" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q121" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="R121" s="11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" s="54" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="50" t="s">
-        <v>609</v>
-      </c>
-      <c r="B122" s="48" t="s">
-        <v>593</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="B122" s="67"/>
       <c r="C122" s="49">
         <v>475</v>
       </c>
@@ -10186,45 +10323,45 @@
         <v>2009</v>
       </c>
       <c r="G122" s="47" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H122" s="47" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="I122" s="47" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="J122" s="54" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K122" s="51" t="s">
-        <v>594</v>
-      </c>
-      <c r="L122" s="53" t="s">
-        <v>595</v>
+        <v>483</v>
+      </c>
+      <c r="L122" s="52">
+        <v>1000</v>
       </c>
       <c r="M122" s="52">
-        <v>1000</v>
-      </c>
-      <c r="N122" s="52">
         <v>3000</v>
       </c>
-      <c r="O122" s="63">
+      <c r="N122" s="63">
         <f t="shared" si="9"/>
         <v>2000</v>
       </c>
-      <c r="P122" s="62" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q122" s="51"/>
-    </row>
-    <row r="123" spans="1:17" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O122" s="62" t="s">
+        <v>485</v>
+      </c>
+      <c r="P122" s="51"/>
+      <c r="Q122" s="48" t="s">
+        <v>482</v>
+      </c>
+      <c r="R122" s="53" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" ht="250.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C123" s="10">
         <v>437</v>
@@ -10252,34 +10389,34 @@
         <v>1</v>
       </c>
       <c r="K123" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="L123" s="11" t="s">
-        <v>559</v>
+        <v>448</v>
+      </c>
+      <c r="L123" s="26">
+        <v>1500</v>
       </c>
       <c r="M123" s="26">
-        <v>1500</v>
-      </c>
-      <c r="N123" s="26">
         <v>3000</v>
       </c>
-      <c r="O123" s="31">
+      <c r="N123" s="31">
         <f t="shared" si="9"/>
         <v>2250</v>
       </c>
-      <c r="P123" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q123" s="11" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" ht="282.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O123" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="P123" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q123" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="R123" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" ht="282.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="24" t="s">
-        <v>569</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>567</v>
+        <v>606</v>
       </c>
       <c r="C124" s="9">
         <v>620</v>
@@ -10307,34 +10444,34 @@
         <v>0</v>
       </c>
       <c r="K124" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="L124" s="46" t="s">
-        <v>579</v>
+        <v>462</v>
+      </c>
+      <c r="L124" s="26">
+        <v>600</v>
       </c>
       <c r="M124" s="26">
-        <v>600</v>
-      </c>
-      <c r="N124" s="26">
         <v>2000</v>
       </c>
-      <c r="O124" s="31">
+      <c r="N124" s="31">
         <f t="shared" si="9"/>
         <v>1300</v>
       </c>
-      <c r="P124" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q124" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O124" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="P124" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q124" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="R124" s="46" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" ht="250.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="C125" s="10">
         <v>652</v>
@@ -10349,48 +10486,49 @@
         <v>2011</v>
       </c>
       <c r="G125" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H125" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="I125" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="J125" s="10" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K125" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="L125" s="11" t="s">
-        <v>561</v>
+        <v>454</v>
+      </c>
+      <c r="L125" s="26">
+        <v>22500</v>
       </c>
       <c r="M125" s="26">
-        <v>22500</v>
-      </c>
-      <c r="N125" s="26">
         <v>48000</v>
       </c>
-      <c r="O125" s="31">
+      <c r="N125" s="31">
         <f t="shared" si="9"/>
         <v>35250</v>
       </c>
-      <c r="P125" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q125" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" ht="224.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O125" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="P125" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q125" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="R125" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" ht="224.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="34" t="s">
-        <v>563</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>611</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B126" s="67"/>
       <c r="C126" s="9">
         <v>625</v>
       </c>
@@ -10404,48 +10542,49 @@
         <v>2011</v>
       </c>
       <c r="G126" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H126" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="I126" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="J126" s="10" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K126" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="L126" s="46" t="s">
-        <v>565</v>
+        <v>477</v>
+      </c>
+      <c r="L126" s="26">
+        <v>1000</v>
       </c>
       <c r="M126" s="26">
-        <v>1000</v>
-      </c>
-      <c r="N126" s="26">
         <v>2000</v>
       </c>
-      <c r="O126" s="31">
+      <c r="N126" s="31">
         <f t="shared" si="9"/>
         <v>1500</v>
       </c>
-      <c r="P126" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q126" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" s="54" customFormat="1" ht="290.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O126" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="P126" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q126" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="R126" s="46" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" s="54" customFormat="1" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="50" t="s">
-        <v>597</v>
-      </c>
-      <c r="B127" s="48" t="s">
-        <v>612</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="B127" s="67"/>
       <c r="C127" s="49">
         <v>651</v>
       </c>
@@ -10459,43 +10598,44 @@
         <v>2013</v>
       </c>
       <c r="G127" s="47" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H127" s="47" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="I127" s="47" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="J127" s="54" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K127" s="51" t="s">
-        <v>590</v>
-      </c>
-      <c r="L127" s="53" t="s">
-        <v>598</v>
+        <v>480</v>
+      </c>
+      <c r="L127" s="52">
+        <v>1000</v>
       </c>
       <c r="M127" s="52">
-        <v>1000</v>
-      </c>
-      <c r="N127" s="52">
         <v>1400</v>
       </c>
-      <c r="O127" s="63">
+      <c r="N127" s="63">
         <f t="shared" si="9"/>
         <v>1200</v>
       </c>
-      <c r="P127" s="62"/>
-    </row>
-    <row r="128" spans="1:17" ht="224.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O127" s="62"/>
+      <c r="Q127" s="48" t="s">
+        <v>497</v>
+      </c>
+      <c r="R127" s="53" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" ht="224.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="34" t="s">
-        <v>583</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>613</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="B128" s="67"/>
       <c r="C128" s="9">
         <v>626</v>
       </c>
@@ -10509,48 +10649,49 @@
         <v>2013</v>
       </c>
       <c r="G128" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H128" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="I128" s="45" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="J128" s="10" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K128" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="L128" s="46" t="s">
-        <v>638</v>
+        <v>475</v>
+      </c>
+      <c r="L128" s="26">
+        <v>10000</v>
       </c>
       <c r="M128" s="26">
-        <v>10000</v>
-      </c>
-      <c r="N128" s="26">
         <v>37500</v>
       </c>
-      <c r="O128" s="31">
+      <c r="N128" s="31">
         <f t="shared" si="9"/>
         <v>23750</v>
       </c>
-      <c r="P128" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q128" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" s="54" customFormat="1" ht="224.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O128" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="P128" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q128" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="R128" s="46" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" s="54" customFormat="1" ht="224.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="50" t="s">
-        <v>631</v>
-      </c>
-      <c r="B129" s="48" t="s">
-        <v>632</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="B129" s="67"/>
       <c r="C129" s="49">
         <v>645</v>
       </c>
@@ -10564,42 +10705,45 @@
         <v>2014</v>
       </c>
       <c r="G129" s="47" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="H129" s="47" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="I129" s="47" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="J129" s="54" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K129" s="51" t="s">
-        <v>630</v>
-      </c>
-      <c r="L129" s="53" t="s">
-        <v>633</v>
+        <v>514</v>
+      </c>
+      <c r="L129" s="52">
+        <v>1000</v>
       </c>
       <c r="M129" s="52">
-        <v>1000</v>
-      </c>
-      <c r="N129" s="52">
         <v>3000</v>
       </c>
-      <c r="O129" s="63">
+      <c r="N129" s="63">
         <f t="shared" si="9"/>
         <v>2000</v>
       </c>
-      <c r="P129" s="62" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q129" s="51" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O129" s="62" t="s">
+        <v>517</v>
+      </c>
+      <c r="P129" s="51" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q129" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="R129" s="53" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="19" t="s">
         <v>1</v>
       </c>
@@ -10607,20 +10751,20 @@
         <f>AVERAGE(J2:J120)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M130" s="26">
+      <c r="L130" s="26">
+        <f>AVERAGE(L2:L129)</f>
+        <v>327953.8359375</v>
+      </c>
+      <c r="M130" s="52">
         <f>AVERAGE(M2:M129)</f>
-        <v>327953.8359375</v>
+        <v>475900.21875</v>
       </c>
       <c r="N130" s="52">
         <f>AVERAGE(N2:N129)</f>
-        <v>475900.21875</v>
-      </c>
-      <c r="O130" s="52">
-        <f>AVERAGE(O2:O129)</f>
         <v>401927.02734375</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="68.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="19" t="s">
         <v>2</v>
       </c>
@@ -10628,38 +10772,38 @@
         <f>MEDIAN(J2:J120)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M131" s="26">
+      <c r="L131" s="26">
+        <f>MEDIAN(L2:L129)</f>
+        <v>10530</v>
+      </c>
+      <c r="M131" s="52">
         <f>MEDIAN(M2:M129)</f>
-        <v>10530</v>
+        <v>27500</v>
       </c>
       <c r="N131" s="52">
         <f>MEDIAN(N2:N129)</f>
-        <v>27500</v>
-      </c>
-      <c r="O131" s="52">
-        <f>MEDIAN(O2:O129)</f>
         <v>19750</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="M132" s="26">
+        <v>429</v>
+      </c>
+      <c r="L132" s="26">
+        <f>SUM(L2:L129)</f>
+        <v>41978091</v>
+      </c>
+      <c r="M132" s="52">
         <f>SUM(M2:M129)</f>
-        <v>41978091</v>
+        <v>60915228</v>
       </c>
       <c r="N132" s="52">
         <f>SUM(N2:N129)</f>
-        <v>60915228</v>
-      </c>
-      <c r="O132" s="52">
-        <f>SUM(O2:O129)</f>
         <v>51446659.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Q132">
+  <sortState ref="A2:R132">
     <sortCondition ref="F2:F132"/>
     <sortCondition ref="E2:E132"/>
     <sortCondition ref="D2:D132"/>
@@ -10667,7 +10811,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B65256" r:id="rId1" display="CODE BOOK FOR GUERRILLA WARFARE PROJECT"/>
+    <hyperlink ref="Q65256" r:id="rId1" display="CODE BOOK FOR GUERRILLA WARFARE PROJECT"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="19" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/ewp-conflicts-data.xlsx
+++ b/ewp-conflicts-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540"/>
+    <workbookView xWindow="1780" yWindow="460" windowWidth="28720" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="EVENT DATA" sheetId="1" r:id="rId1"/>
@@ -1151,7 +1151,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1173,6 +1173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,7 +1234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1416,6 +1422,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1724,8 +1748,8 @@
   </sheetPr>
   <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1799,7 +1823,7 @@
         <v>1956</v>
       </c>
       <c r="F2" s="8">
-        <f>E2-D2</f>
+        <f t="shared" ref="F2:F21" si="0">E2-D2</f>
         <v>12</v>
       </c>
       <c r="G2" s="9" t="s">
@@ -1812,7 +1836,7 @@
         <v>60138</v>
       </c>
       <c r="J2" s="52">
-        <f t="shared" ref="J2:J21" si="0">AVERAGE(H2:I2)</f>
+        <f t="shared" ref="J2:J21" si="1">AVERAGE(H2:I2)</f>
         <v>55138</v>
       </c>
       <c r="K2" s="22" t="s">
@@ -1839,7 +1863,7 @@
         <v>1985</v>
       </c>
       <c r="F3" s="8">
-        <f>E3-D3</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -1852,7 +1876,7 @@
         <v>10000</v>
       </c>
       <c r="J3" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7500</v>
       </c>
       <c r="K3" s="22" t="s">
@@ -1879,7 +1903,7 @@
         <v>1956</v>
       </c>
       <c r="F4" s="8">
-        <f>E4-D4</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -1892,7 +1916,7 @@
         <v>30000</v>
       </c>
       <c r="J4" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19334</v>
       </c>
       <c r="K4" s="22" t="s">
@@ -1919,7 +1943,7 @@
         <v>1960</v>
       </c>
       <c r="F5" s="8">
-        <f>E5-D5</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -1932,7 +1956,7 @@
         <v>2000</v>
       </c>
       <c r="J5" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -1943,7 +1967,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="265.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="57" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="45" t="s">
@@ -1959,7 +1983,7 @@
         <v>1989</v>
       </c>
       <c r="F6" s="8">
-        <f>E6-D6</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="G6" s="37" t="s">
@@ -1972,7 +1996,7 @@
         <v>360000</v>
       </c>
       <c r="J6" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>230000</v>
       </c>
       <c r="K6" s="44" t="s">
@@ -1999,7 +2023,7 @@
         <v>1948</v>
       </c>
       <c r="F7" s="8">
-        <f>E7-D7</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G7" s="39" t="s">
@@ -2012,7 +2036,7 @@
         <v>59355</v>
       </c>
       <c r="J7" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57177.5</v>
       </c>
       <c r="K7" s="23" t="s">
@@ -2023,7 +2047,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="11" customFormat="1" ht="354.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="58" t="s">
         <v>264</v>
       </c>
       <c r="B8" s="46" t="s">
@@ -2039,7 +2063,7 @@
         <v>1956</v>
       </c>
       <c r="F8" s="8">
-        <f>E8-D8</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -2052,7 +2076,7 @@
         <v>65000</v>
       </c>
       <c r="J8" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="K8" s="22" t="s">
@@ -2079,7 +2103,7 @@
         <v>1946</v>
       </c>
       <c r="F9" s="8">
-        <f>E9-D9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -2092,7 +2116,7 @@
         <v>30000</v>
       </c>
       <c r="J9" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24500</v>
       </c>
       <c r="K9" s="23" t="s">
@@ -2119,7 +2143,7 @@
         <v>1948</v>
       </c>
       <c r="F10" s="8">
-        <f>E10-D10</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G10" s="10" t="s">
@@ -2132,7 +2156,7 @@
         <v>1618400</v>
       </c>
       <c r="J10" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1421700</v>
       </c>
       <c r="K10" s="23" t="s">
@@ -2159,7 +2183,7 @@
         <v>1947</v>
       </c>
       <c r="F11" s="8">
-        <f>E11-D11</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G11" s="10" t="s">
@@ -2172,7 +2196,7 @@
         <v>7500</v>
       </c>
       <c r="J11" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="K11" s="23" t="s">
@@ -2199,7 +2223,7 @@
         <v>1954</v>
       </c>
       <c r="F12" s="8">
-        <f>E12-D12</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -2212,7 +2236,7 @@
         <v>3000</v>
       </c>
       <c r="J12" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="K12" s="23" t="s">
@@ -2239,7 +2263,7 @@
         <v>1947</v>
       </c>
       <c r="F13" s="8">
-        <f>E13-D13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -2252,7 +2276,7 @@
         <v>30000</v>
       </c>
       <c r="J13" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22500</v>
       </c>
       <c r="K13" s="23" t="s">
@@ -2279,7 +2303,7 @@
         <v>1963</v>
       </c>
       <c r="F14" s="8">
-        <f>E14-D14</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -2292,7 +2316,7 @@
         <v>25000</v>
       </c>
       <c r="J14" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18030</v>
       </c>
       <c r="K14" s="22" t="s">
@@ -2319,7 +2343,7 @@
         <v>1990</v>
       </c>
       <c r="F15" s="8">
-        <f>E15-D15</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -2332,7 +2356,7 @@
         <v>100000</v>
       </c>
       <c r="J15" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="K15" s="23" t="s">
@@ -2359,7 +2383,7 @@
         <v>1950</v>
       </c>
       <c r="F16" s="8">
-        <f>E16-D16</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -2372,7 +2396,7 @@
         <v>30000</v>
       </c>
       <c r="J16" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21362.5</v>
       </c>
       <c r="K16" s="22" t="s">
@@ -2399,7 +2423,7 @@
         <v>1958</v>
       </c>
       <c r="F17" s="8">
-        <f>E17-D17</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -2412,7 +2436,7 @@
         <v>150000</v>
       </c>
       <c r="J17" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="K17" s="23" t="s">
@@ -2439,7 +2463,7 @@
         <v>242</v>
       </c>
       <c r="F18" s="8" t="e">
-        <f>E18-D18</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -2452,7 +2476,7 @@
         <v>145000</v>
       </c>
       <c r="J18" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>145000</v>
       </c>
       <c r="K18" s="23" t="s">
@@ -2479,7 +2503,7 @@
         <v>242</v>
       </c>
       <c r="F19" s="8" t="e">
-        <f>E19-D19</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="G19" s="9" t="s">
@@ -2492,7 +2516,7 @@
         <v>1500000</v>
       </c>
       <c r="J19" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>950000</v>
       </c>
       <c r="K19" s="22" t="s">
@@ -2519,7 +2543,7 @@
         <v>1962</v>
       </c>
       <c r="F20" s="8">
-        <f>E20-D20</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -2532,7 +2556,7 @@
         <v>4000</v>
       </c>
       <c r="J20" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2750</v>
       </c>
       <c r="K20" s="22" t="s">
@@ -2559,7 +2583,7 @@
         <v>1977</v>
       </c>
       <c r="F21" s="8">
-        <f>E21-D21</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="G21" s="10" t="s">
@@ -2572,7 +2596,7 @@
         <v>40000000</v>
       </c>
       <c r="J21" s="52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35500000</v>
       </c>
       <c r="K21" s="22" t="s">
@@ -2621,7 +2645,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="39" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="57" t="s">
         <v>287</v>
       </c>
       <c r="B23" s="45" t="s">
@@ -2637,7 +2661,7 @@
         <v>1975</v>
       </c>
       <c r="F23" s="8">
-        <f>E23-D23</f>
+        <f t="shared" ref="F23:F54" si="2">E23-D23</f>
         <v>21</v>
       </c>
       <c r="G23" s="37" t="s">
@@ -2650,7 +2674,7 @@
         <v>300000</v>
       </c>
       <c r="J23" s="52">
-        <f t="shared" ref="J23:J54" si="1">AVERAGE(H23:I23)</f>
+        <f t="shared" ref="J23:J54" si="3">AVERAGE(H23:I23)</f>
         <v>225000</v>
       </c>
       <c r="K23" s="22" t="s">
@@ -2661,7 +2685,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="189" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="59" t="s">
         <v>140</v>
       </c>
       <c r="B24" s="47"/>
@@ -2675,7 +2699,7 @@
         <v>1957</v>
       </c>
       <c r="F24" s="8">
-        <f>E24-D24</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G24" s="39" t="s">
@@ -2688,7 +2712,7 @@
         <v>50000</v>
       </c>
       <c r="J24" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41000</v>
       </c>
       <c r="K24" s="22" t="s">
@@ -2715,7 +2739,7 @@
         <v>1977</v>
       </c>
       <c r="F25" s="8">
-        <f>E25-D25</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="G25" s="9" t="s">
@@ -2728,7 +2752,7 @@
         <v>500000</v>
       </c>
       <c r="J25" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>375000</v>
       </c>
       <c r="K25" s="22" t="s">
@@ -2755,7 +2779,7 @@
         <v>1972</v>
       </c>
       <c r="F26" s="8">
-        <f>E26-D26</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="G26" s="9" t="s">
@@ -2768,7 +2792,7 @@
         <v>600000</v>
       </c>
       <c r="J26" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>500000</v>
       </c>
       <c r="K26" s="22" t="s">
@@ -2795,7 +2819,7 @@
         <v>1986</v>
       </c>
       <c r="F27" s="8">
-        <f>E27-D27</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="G27" s="9" t="s">
@@ -2808,7 +2832,7 @@
         <v>60000</v>
       </c>
       <c r="J27" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35000</v>
       </c>
       <c r="K27" s="22" t="s">
@@ -2835,7 +2859,7 @@
         <v>1970</v>
       </c>
       <c r="F28" s="8">
-        <f>E28-D28</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -2848,7 +2872,7 @@
         <v>8335</v>
       </c>
       <c r="J28" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6667.5</v>
       </c>
       <c r="K28" s="22" t="s">
@@ -2875,7 +2899,7 @@
         <v>1959</v>
       </c>
       <c r="F29" s="8">
-        <f>E29-D29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -2888,7 +2912,7 @@
         <v>1000</v>
       </c>
       <c r="J29" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="K29" s="22" t="s">
@@ -2899,7 +2923,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="164.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="59" t="s">
         <v>293</v>
       </c>
       <c r="B30" s="47" t="s">
@@ -2915,7 +2939,7 @@
         <v>1973</v>
       </c>
       <c r="F30" s="8">
-        <f>E30-D30</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -2928,7 +2952,7 @@
         <v>90000</v>
       </c>
       <c r="J30" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60000</v>
       </c>
       <c r="K30" s="23" t="s">
@@ -2939,7 +2963,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="204.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="57" t="s">
         <v>295</v>
       </c>
       <c r="B31" s="45" t="s">
@@ -2955,7 +2979,7 @@
         <v>1980</v>
       </c>
       <c r="F31" s="8">
-        <f>E31-D31</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G31" s="37" t="s">
@@ -2968,7 +2992,7 @@
         <v>50000</v>
       </c>
       <c r="J31" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28000</v>
       </c>
       <c r="K31" s="44" t="s">
@@ -2995,7 +3019,7 @@
         <v>1963</v>
       </c>
       <c r="F32" s="8">
-        <f>E32-D32</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -3008,7 +3032,7 @@
         <v>5000</v>
       </c>
       <c r="J32" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="K32" s="23" t="s">
@@ -3035,7 +3059,7 @@
         <v>1991</v>
       </c>
       <c r="F33" s="8">
-        <f>E33-D33</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="G33" s="9" t="s">
@@ -3048,7 +3072,7 @@
         <v>240000</v>
       </c>
       <c r="J33" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>160000</v>
       </c>
       <c r="K33" s="22" t="s">
@@ -3075,7 +3099,7 @@
         <v>1991</v>
       </c>
       <c r="F34" s="8">
-        <f>E34-D34</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="G34" s="9" t="s">
@@ -3088,7 +3112,7 @@
         <v>200000</v>
       </c>
       <c r="J34" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>190000</v>
       </c>
       <c r="K34" s="22" t="s">
@@ -3115,7 +3139,7 @@
         <v>1962</v>
       </c>
       <c r="F35" s="8">
-        <f>E35-D35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="9" t="s">
@@ -3128,7 +3152,7 @@
         <v>150000</v>
       </c>
       <c r="J35" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>90000</v>
       </c>
       <c r="K35" s="22" t="s">
@@ -3152,7 +3176,7 @@
         <v>1970</v>
       </c>
       <c r="F36" s="8">
-        <f>E36-D36</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G36" s="9" t="s">
@@ -3165,7 +3189,7 @@
         <v>50000</v>
       </c>
       <c r="J36" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35000</v>
       </c>
       <c r="K36" s="22" t="s">
@@ -3192,7 +3216,7 @@
         <v>2003</v>
       </c>
       <c r="F37" s="8">
-        <f>E37-D37</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="G37" s="9" t="s">
@@ -3205,7 +3229,7 @@
         <v>85000</v>
       </c>
       <c r="J37" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>85000</v>
       </c>
       <c r="K37" s="22" t="s">
@@ -3230,7 +3254,7 @@
         <v>1967</v>
       </c>
       <c r="F38" s="8">
-        <f>E38-D38</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G38" s="9" t="s">
@@ -3243,7 +3267,7 @@
         <v>20000</v>
       </c>
       <c r="J38" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16000</v>
       </c>
       <c r="K38" s="22" t="s">
@@ -3270,7 +3294,7 @@
         <v>1964</v>
       </c>
       <c r="F39" s="8">
-        <f>E39-D39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="9" t="s">
@@ -3283,7 +3307,7 @@
         <v>5000</v>
       </c>
       <c r="J39" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4500</v>
       </c>
       <c r="K39" s="22" t="s">
@@ -3307,7 +3331,7 @@
         <v>1965</v>
       </c>
       <c r="F40" s="8">
-        <f>E40-D40</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G40" s="10" t="s">
@@ -3320,7 +3344,7 @@
         <v>5000</v>
       </c>
       <c r="J40" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3500</v>
       </c>
       <c r="K40" s="23" t="s">
@@ -3347,7 +3371,7 @@
         <v>1994</v>
       </c>
       <c r="F41" s="8">
-        <f>E41-D41</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="G41" s="10" t="s">
@@ -3360,7 +3384,7 @@
         <v>6000</v>
       </c>
       <c r="J41" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
       <c r="K41" s="23" t="s">
@@ -3385,7 +3409,7 @@
         <v>2010</v>
       </c>
       <c r="F42" s="8">
-        <f>E42-D42</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="G42" s="9" t="s">
@@ -3398,7 +3422,7 @@
         <v>60000</v>
       </c>
       <c r="J42" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
       <c r="K42" s="22" t="s">
@@ -3425,7 +3449,7 @@
         <v>1978</v>
       </c>
       <c r="F43" s="8">
-        <f>E43-D43</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G43" s="10" t="s">
@@ -3438,7 +3462,7 @@
         <v>5000</v>
       </c>
       <c r="J43" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4500</v>
       </c>
       <c r="K43" s="23" t="s">
@@ -3465,7 +3489,7 @@
         <v>1966</v>
       </c>
       <c r="F44" s="8">
-        <f>E44-D44</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G44" s="9" t="s">
@@ -3478,7 +3502,7 @@
         <v>500000</v>
       </c>
       <c r="J44" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>375000</v>
       </c>
       <c r="K44" s="22" t="s">
@@ -3503,7 +3527,7 @@
         <v>1973</v>
       </c>
       <c r="F45" s="8">
-        <f>E45-D45</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G45" s="9" t="s">
@@ -3516,7 +3540,7 @@
         <v>200000</v>
       </c>
       <c r="J45" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>150000</v>
       </c>
       <c r="K45" s="22" t="s">
@@ -3543,7 +3567,7 @@
         <v>1975</v>
       </c>
       <c r="F46" s="8">
-        <f>E46-D46</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G46" s="6" t="s">
@@ -3556,7 +3580,7 @@
         <v>200000</v>
       </c>
       <c r="J46" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>142500</v>
       </c>
       <c r="K46" s="18" t="s">
@@ -3583,7 +3607,7 @@
         <v>1970</v>
       </c>
       <c r="F47" s="8">
-        <f>E47-D47</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G47" s="9" t="s">
@@ -3596,7 +3620,7 @@
         <v>2000000</v>
       </c>
       <c r="J47" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1300000</v>
       </c>
       <c r="K47" s="22" t="s">
@@ -3620,7 +3644,7 @@
         <v>1979</v>
       </c>
       <c r="F48" s="8">
-        <f>E48-D48</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G48" s="9" t="s">
@@ -3633,7 +3657,7 @@
         <v>50000</v>
       </c>
       <c r="J48" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45000</v>
       </c>
       <c r="K48" s="22" t="s">
@@ -3658,7 +3682,7 @@
         <v>2010</v>
       </c>
       <c r="F49" s="8">
-        <f>E49-D49</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="G49" s="30" t="s">
@@ -3671,7 +3695,7 @@
         <v>8000</v>
       </c>
       <c r="J49" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6500</v>
       </c>
       <c r="K49" s="31" t="s">
@@ -3696,7 +3720,7 @@
         <v>2007</v>
       </c>
       <c r="F50" s="8">
-        <f>E50-D50</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="G50" s="30" t="s">
@@ -3709,7 +3733,7 @@
         <v>40000</v>
       </c>
       <c r="J50" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40000</v>
       </c>
       <c r="K50" s="31" t="s">
@@ -3733,7 +3757,7 @@
         <v>1971</v>
       </c>
       <c r="F51" s="8">
-        <f>E51-D51</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G51" s="9" t="s">
@@ -3746,7 +3770,7 @@
         <v>1000</v>
       </c>
       <c r="J51" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="K51" s="22" t="s">
@@ -3770,7 +3794,7 @@
         <v>1979</v>
       </c>
       <c r="F52" s="8">
-        <f>E52-D52</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G52" s="9" t="s">
@@ -3783,7 +3807,7 @@
         <v>300000</v>
       </c>
       <c r="J52" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>165000</v>
       </c>
       <c r="K52" s="22" t="s">
@@ -3807,7 +3831,7 @@
         <v>1971</v>
       </c>
       <c r="F53" s="8">
-        <f>E53-D53</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G53" s="9" t="s">
@@ -3820,7 +3844,7 @@
         <v>1000000</v>
       </c>
       <c r="J53" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>650000</v>
       </c>
       <c r="K53" s="22" t="s">
@@ -3844,7 +3868,7 @@
         <v>1971</v>
       </c>
       <c r="F54" s="8">
-        <f>E54-D54</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G54" s="9" t="s">
@@ -3857,7 +3881,7 @@
         <v>8000</v>
       </c>
       <c r="J54" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="K54" s="22" t="s">
@@ -3881,7 +3905,7 @@
         <v>1986</v>
       </c>
       <c r="F55" s="8">
-        <f>E55-D55</f>
+        <f t="shared" ref="F55:F86" si="4">E55-D55</f>
         <v>14</v>
       </c>
       <c r="G55" s="9" t="s">
@@ -3894,7 +3918,7 @@
         <v>60000</v>
       </c>
       <c r="J55" s="52">
-        <f t="shared" ref="J55:J86" si="2">AVERAGE(H55:I55)</f>
+        <f t="shared" ref="J55:J86" si="5">AVERAGE(H55:I55)</f>
         <v>45000</v>
       </c>
       <c r="K55" s="22" t="s">
@@ -3921,7 +3945,7 @@
         <v>1979</v>
       </c>
       <c r="F56" s="8">
-        <f>E56-D56</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G56" s="9" t="s">
@@ -3934,7 +3958,7 @@
         <v>10000</v>
       </c>
       <c r="J56" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7000</v>
       </c>
       <c r="K56" s="22" t="s">
@@ -3959,7 +3983,7 @@
         <v>1977</v>
       </c>
       <c r="F57" s="8">
-        <f>E57-D57</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G57" s="9" t="s">
@@ -3972,7 +3996,7 @@
         <v>2500</v>
       </c>
       <c r="J57" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1750</v>
       </c>
       <c r="K57" s="22" t="s">
@@ -3996,7 +4020,7 @@
         <v>1978</v>
       </c>
       <c r="F58" s="8">
-        <f>E58-D58</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G58" s="9" t="s">
@@ -4009,7 +4033,7 @@
         <v>3200</v>
       </c>
       <c r="J58" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3200</v>
       </c>
       <c r="K58" s="22" t="s">
@@ -4036,7 +4060,7 @@
         <v>1991</v>
       </c>
       <c r="F59" s="8">
-        <f>E59-D59</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="G59" s="9" t="s">
@@ -4049,7 +4073,7 @@
         <v>300000</v>
       </c>
       <c r="J59" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>250000</v>
       </c>
       <c r="K59" s="22" t="s">
@@ -4073,7 +4097,7 @@
         <v>1979</v>
       </c>
       <c r="F60" s="8">
-        <f>E60-D60</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G60" s="9" t="s">
@@ -4086,7 +4110,7 @@
         <v>7000</v>
       </c>
       <c r="J60" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7000</v>
       </c>
       <c r="K60" s="22" t="s">
@@ -4113,7 +4137,7 @@
         <v>1991</v>
       </c>
       <c r="F61" s="8">
-        <f>E61-D61</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="G61" s="10" t="s">
@@ -4126,7 +4150,7 @@
         <v>36000</v>
       </c>
       <c r="J61" s="56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20500</v>
       </c>
       <c r="K61" s="23" t="s">
@@ -4150,7 +4174,7 @@
         <v>1979</v>
       </c>
       <c r="F62" s="8">
-        <f>E62-D62</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G62" s="10" t="s">
@@ -4163,7 +4187,7 @@
         <v>2000000</v>
       </c>
       <c r="J62" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1500000</v>
       </c>
       <c r="K62" s="23" t="s">
@@ -4190,7 +4214,7 @@
         <v>1986</v>
       </c>
       <c r="F63" s="8">
-        <f>E63-D63</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G63" s="9" t="s">
@@ -4203,7 +4227,7 @@
         <v>100000</v>
       </c>
       <c r="J63" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>82500</v>
       </c>
       <c r="K63" s="22" t="s">
@@ -4227,7 +4251,7 @@
         <v>1992</v>
       </c>
       <c r="F64" s="8">
-        <f>E64-D64</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="G64" s="9" t="s">
@@ -4240,7 +4264,7 @@
         <v>60000</v>
       </c>
       <c r="J64" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>31500</v>
       </c>
       <c r="K64" s="22" t="s">
@@ -4267,7 +4291,7 @@
         <v>2002</v>
       </c>
       <c r="F65" s="8">
-        <f>E65-D65</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="G65" s="9" t="s">
@@ -4280,7 +4304,7 @@
         <v>375000</v>
       </c>
       <c r="J65" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>217500</v>
       </c>
       <c r="K65" s="22" t="s">
@@ -4304,7 +4328,7 @@
         <v>1999</v>
       </c>
       <c r="F66" s="8">
-        <f>E66-D66</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="G66" s="9" t="s">
@@ -4317,7 +4341,7 @@
         <v>150000</v>
       </c>
       <c r="J66" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>115000</v>
       </c>
       <c r="K66" s="22" t="s">
@@ -4341,7 +4365,7 @@
         <v>1983</v>
       </c>
       <c r="F67" s="8">
-        <f>E67-D67</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G67" s="9" t="s">
@@ -4354,7 +4378,7 @@
         <v>30000</v>
       </c>
       <c r="J67" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>19500</v>
       </c>
       <c r="K67" s="22" t="s">
@@ -4379,7 +4403,7 @@
         <v>1994</v>
       </c>
       <c r="F68" s="8">
-        <f>E68-D68</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="G68" s="12" t="s">
@@ -4392,7 +4416,7 @@
         <v>2700</v>
       </c>
       <c r="J68" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2700</v>
       </c>
       <c r="K68" s="22" t="s">
@@ -4416,7 +4440,7 @@
         <v>1985</v>
       </c>
       <c r="F69" s="8">
-        <f>E69-D69</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G69" s="9" t="s">
@@ -4429,7 +4453,7 @@
         <v>60000</v>
       </c>
       <c r="J69" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
       <c r="K69" s="22" t="s">
@@ -4454,7 +4478,7 @@
         <v>1992</v>
       </c>
       <c r="F70" s="8">
-        <f>E70-D70</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G70" s="10" t="s">
@@ -4467,7 +4491,7 @@
         <v>70000</v>
       </c>
       <c r="J70" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>55000</v>
       </c>
       <c r="K70" s="23" t="s">
@@ -4494,7 +4518,7 @@
         <v>1979</v>
       </c>
       <c r="F71" s="8">
-        <f>E71-D71</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G71" s="9" t="s">
@@ -4507,7 +4531,7 @@
         <v>3000</v>
       </c>
       <c r="J71" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2500</v>
       </c>
       <c r="K71" s="22" t="s">
@@ -4531,7 +4555,7 @@
         <v>1992</v>
       </c>
       <c r="F72" s="8">
-        <f>E72-D72</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="G72" s="9" t="s">
@@ -4544,7 +4568,7 @@
         <v>1800000</v>
       </c>
       <c r="J72" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1400000</v>
       </c>
       <c r="K72" s="22" t="s">
@@ -4571,7 +4595,7 @@
         <v>2010</v>
       </c>
       <c r="F73" s="8">
-        <f>E73-D73</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="G73" s="9" t="s">
@@ -4584,7 +4608,7 @@
         <v>20000</v>
       </c>
       <c r="J73" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>15000</v>
       </c>
       <c r="K73" s="22" t="s">
@@ -4608,7 +4632,7 @@
         <v>1985</v>
       </c>
       <c r="F74" s="8">
-        <f>E74-D74</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G74" s="12" t="s">
@@ -4621,7 +4645,7 @@
         <v>25000</v>
       </c>
       <c r="J74" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>17500</v>
       </c>
       <c r="K74" s="22" t="s">
@@ -4648,7 +4672,7 @@
         <v>1997</v>
       </c>
       <c r="F75" s="8">
-        <f>E75-D75</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="G75" s="9" t="s">
@@ -4661,7 +4685,7 @@
         <v>2500</v>
       </c>
       <c r="J75" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2250</v>
       </c>
       <c r="K75" s="22" t="s">
@@ -4672,7 +4696,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" ht="307.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="60" t="s">
         <v>320</v>
       </c>
       <c r="C76" s="8">
@@ -4685,7 +4709,7 @@
         <v>1992</v>
       </c>
       <c r="F76" s="8">
-        <f>E76-D76</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G76" s="12" t="s">
@@ -4698,7 +4722,7 @@
         <v>25000</v>
       </c>
       <c r="J76" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25000</v>
       </c>
       <c r="K76" s="22" t="s">
@@ -4709,7 +4733,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="246.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="60" t="s">
         <v>308</v>
       </c>
       <c r="C77" s="8">
@@ -4722,7 +4746,7 @@
         <v>1980</v>
       </c>
       <c r="F77" s="8">
-        <f>E77-D77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G77" s="37" t="s">
@@ -4735,7 +4759,7 @@
         <v>4200</v>
       </c>
       <c r="J77" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4100</v>
       </c>
       <c r="K77" s="22" t="s">
@@ -4762,7 +4786,7 @@
         <v>1986</v>
       </c>
       <c r="F78" s="8">
-        <f>E78-D78</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G78" s="9" t="s">
@@ -4775,7 +4799,7 @@
         <v>300000</v>
       </c>
       <c r="J78" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>250000</v>
       </c>
       <c r="K78" s="22" t="s">
@@ -4799,7 +4823,7 @@
         <v>1988</v>
       </c>
       <c r="F79" s="8">
-        <f>E79-D79</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G79" s="12" t="s">
@@ -4812,7 +4836,7 @@
         <v>2000</v>
       </c>
       <c r="J79" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1500</v>
       </c>
       <c r="K79" s="22" t="s">
@@ -4836,7 +4860,7 @@
         <v>1987</v>
       </c>
       <c r="F80" s="8">
-        <f>E80-D80</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G80" s="12" t="s">
@@ -4849,7 +4873,7 @@
         <v>20000</v>
       </c>
       <c r="J80" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20000</v>
       </c>
       <c r="K80" s="22" t="s">
@@ -4873,7 +4897,7 @@
         <v>1990</v>
       </c>
       <c r="F81" s="8">
-        <f>E81-D81</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G81" s="9" t="s">
@@ -4886,7 +4910,7 @@
         <v>55000</v>
       </c>
       <c r="J81" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>55000</v>
       </c>
       <c r="K81" s="22" t="s">
@@ -4910,7 +4934,7 @@
         <v>1990</v>
       </c>
       <c r="F82" s="8">
-        <f>E82-D82</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G82" s="9" t="s">
@@ -4923,7 +4947,7 @@
         <v>40000</v>
       </c>
       <c r="J82" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>26000</v>
       </c>
       <c r="K82" s="22" t="s">
@@ -4947,7 +4971,7 @@
         <v>2005</v>
       </c>
       <c r="F83" s="8">
-        <f>E83-D83</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="G83" s="9" t="s">
@@ -4960,7 +4984,7 @@
         <v>2000000</v>
       </c>
       <c r="J83" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1750000</v>
       </c>
       <c r="K83" s="22" t="s">
@@ -4985,7 +5009,7 @@
         <v>2002</v>
       </c>
       <c r="F84" s="8">
-        <f>E84-D84</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="G84" s="12" t="s">
@@ -4998,7 +5022,7 @@
         <v>20000</v>
       </c>
       <c r="J84" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16000</v>
       </c>
       <c r="K84" s="22" t="s">
@@ -5023,7 +5047,7 @@
         <v>1994</v>
       </c>
       <c r="F85" s="8">
-        <f>E85-D85</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="G85" s="9" t="s">
@@ -5036,7 +5060,7 @@
         <v>3000</v>
       </c>
       <c r="J85" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
       <c r="K85" s="22" t="s">
@@ -5061,7 +5085,7 @@
         <v>1999</v>
       </c>
       <c r="F86" s="8">
-        <f>E86-D86</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G86" s="9" t="s">
@@ -5074,7 +5098,7 @@
         <v>17500</v>
       </c>
       <c r="J86" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>17500</v>
       </c>
       <c r="K86" s="22" t="s">
@@ -5099,7 +5123,7 @@
         <v>1986</v>
       </c>
       <c r="F87" s="8">
-        <f>E87-D87</f>
+        <f t="shared" ref="F87:F118" si="6">E87-D87</f>
         <v>0</v>
       </c>
       <c r="G87" s="10" t="s">
@@ -5112,7 +5136,7 @@
         <v>2000</v>
       </c>
       <c r="J87" s="52">
-        <f t="shared" ref="J87:J118" si="3">AVERAGE(H87:I87)</f>
+        <f t="shared" ref="J87:J118" si="7">AVERAGE(H87:I87)</f>
         <v>1500</v>
       </c>
       <c r="K87" s="23" t="s">
@@ -5137,7 +5161,7 @@
         <v>2006</v>
       </c>
       <c r="F88" s="8">
-        <f>E88-D88</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G88" s="10" t="s">
@@ -5150,7 +5174,7 @@
         <v>2000</v>
       </c>
       <c r="J88" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1500</v>
       </c>
       <c r="K88" s="23" t="s">
@@ -5177,7 +5201,7 @@
         <v>1988</v>
       </c>
       <c r="F89" s="8">
-        <f>E89-D89</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G89" s="10" t="s">
@@ -5190,7 +5214,7 @@
         <v>3000</v>
       </c>
       <c r="J89" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3000</v>
       </c>
       <c r="K89" s="23" t="s">
@@ -5215,7 +5239,7 @@
         <v>2005</v>
       </c>
       <c r="F90" s="40">
-        <f>E90-D90</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="G90" s="39" t="s">
@@ -5228,7 +5252,7 @@
         <v>200000</v>
       </c>
       <c r="J90" s="56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>175000</v>
       </c>
       <c r="K90" s="23" t="s">
@@ -5239,7 +5263,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="286.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="60" t="s">
         <v>234</v>
       </c>
       <c r="C91" s="38">
@@ -5252,7 +5276,7 @@
         <v>1992</v>
       </c>
       <c r="F91" s="8">
-        <f>E91-D91</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G91" s="37" t="s">
@@ -5265,7 +5289,7 @@
         <v>60000</v>
       </c>
       <c r="J91" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>42500</v>
       </c>
       <c r="K91" s="44" t="s">
@@ -5276,7 +5300,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="57" t="s">
         <v>326</v>
       </c>
       <c r="C92" s="40">
@@ -5289,7 +5313,7 @@
         <v>1998</v>
       </c>
       <c r="F92" s="8">
-        <f>E92-D92</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G92" s="39" t="s">
@@ -5302,7 +5326,7 @@
         <v>15000</v>
       </c>
       <c r="J92" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11250</v>
       </c>
       <c r="K92" s="23" t="s">
@@ -5313,7 +5337,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="61" t="s">
         <v>280</v>
       </c>
       <c r="B93" s="47"/>
@@ -5327,7 +5351,7 @@
         <v>2005</v>
       </c>
       <c r="F93" s="8">
-        <f>E93-D93</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="G93" s="9" t="s">
@@ -5340,7 +5364,7 @@
         <v>11000</v>
       </c>
       <c r="J93" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9000</v>
       </c>
       <c r="K93" s="22" t="s">
@@ -5365,7 +5389,7 @@
         <v>1989</v>
       </c>
       <c r="F94" s="8">
-        <f>E94-D94</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G94" s="9" t="s">
@@ -5378,7 +5402,7 @@
         <v>1000</v>
       </c>
       <c r="J94" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="K94" s="22" t="s">
@@ -5405,7 +5429,7 @@
         <v>1990</v>
       </c>
       <c r="F95" s="8">
-        <f>E95-D95</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G95" s="9" t="s">
@@ -5418,7 +5442,7 @@
         <v>15000</v>
       </c>
       <c r="J95" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11250</v>
       </c>
       <c r="K95" s="22" t="s">
@@ -5442,7 +5466,7 @@
         <v>2011</v>
       </c>
       <c r="F96" s="8">
-        <f>E96-D96</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="G96" s="9" t="s">
@@ -5455,7 +5479,7 @@
         <v>30000</v>
       </c>
       <c r="J96" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30000</v>
       </c>
       <c r="K96" s="22" t="s">
@@ -5479,7 +5503,7 @@
         <v>1994</v>
       </c>
       <c r="F97" s="8">
-        <f>E97-D97</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G97" s="9" t="s">
@@ -5492,7 +5516,7 @@
         <v>800000</v>
       </c>
       <c r="J97" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>650000</v>
       </c>
       <c r="K97" s="22" t="s">
@@ -5516,7 +5540,7 @@
         <v>2009</v>
       </c>
       <c r="F98" s="8">
-        <f>E98-D98</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="G98" s="9" t="s">
@@ -5529,7 +5553,7 @@
         <v>4500</v>
       </c>
       <c r="J98" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4500</v>
       </c>
       <c r="K98" s="22" t="s">
@@ -5553,7 +5577,7 @@
         <v>2003</v>
       </c>
       <c r="F99" s="8">
-        <f>E99-D99</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="G99" s="9" t="s">
@@ -5566,7 +5590,7 @@
         <v>60000</v>
       </c>
       <c r="J99" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45000</v>
       </c>
       <c r="K99" s="22" t="s">
@@ -5590,7 +5614,7 @@
         <v>2002</v>
       </c>
       <c r="F100" s="8">
-        <f>E100-D100</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="G100" s="9" t="s">
@@ -5603,7 +5627,7 @@
         <v>7000</v>
       </c>
       <c r="J100" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4500</v>
       </c>
       <c r="K100" s="22" t="s">
@@ -5627,7 +5651,7 @@
         <v>2005</v>
       </c>
       <c r="F101" s="8">
-        <f>E101-D101</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="G101" s="9" t="s">
@@ -5640,7 +5664,7 @@
         <v>50000</v>
       </c>
       <c r="J101" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37500</v>
       </c>
       <c r="K101" s="22" t="s">
@@ -5667,7 +5691,7 @@
         <v>1992</v>
       </c>
       <c r="F102" s="8">
-        <f>E102-D102</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G102" s="9" t="s">
@@ -5680,7 +5704,7 @@
         <v>4000</v>
       </c>
       <c r="J102" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3500</v>
       </c>
       <c r="K102" s="22" t="s">
@@ -5704,7 +5728,7 @@
         <v>1994</v>
       </c>
       <c r="F103" s="8">
-        <f>E103-D103</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="G103" s="9" t="s">
@@ -5717,7 +5741,7 @@
         <v>1500</v>
       </c>
       <c r="J103" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1500</v>
       </c>
       <c r="K103" s="22" t="s">
@@ -5744,7 +5768,7 @@
         <v>1994</v>
       </c>
       <c r="F104" s="8">
-        <f>E104-D104</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="G104" s="9" t="s">
@@ -5757,7 +5781,7 @@
         <v>4000</v>
       </c>
       <c r="J104" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3500</v>
       </c>
       <c r="K104" s="22" t="s">
@@ -5784,7 +5808,7 @@
         <v>2003</v>
       </c>
       <c r="F105" s="8">
-        <f>E105-D105</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="G105" s="9" t="s">
@@ -5797,7 +5821,7 @@
         <v>2000</v>
       </c>
       <c r="J105" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1500</v>
       </c>
       <c r="K105" s="22" t="s">
@@ -5821,7 +5845,7 @@
         <v>1995</v>
       </c>
       <c r="F106" s="8">
-        <f>E106-D106</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="G106" s="9" t="s">
@@ -5834,7 +5858,7 @@
         <v>145000</v>
       </c>
       <c r="J106" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>145000</v>
       </c>
       <c r="K106" s="22" t="s">
@@ -5858,7 +5882,7 @@
         <v>1996</v>
       </c>
       <c r="F107" s="8">
-        <f>E107-D107</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G107" s="9" t="s">
@@ -5871,7 +5895,7 @@
         <v>10000</v>
       </c>
       <c r="J107" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6250</v>
       </c>
       <c r="K107" s="22" t="s">
@@ -5895,7 +5919,7 @@
         <v>1997</v>
       </c>
       <c r="F108" s="8">
-        <f>E108-D108</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G108" s="9" t="s">
@@ -5908,7 +5932,7 @@
         <v>25000</v>
       </c>
       <c r="J108" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17500</v>
       </c>
       <c r="K108" s="22" t="s">
@@ -5932,7 +5956,7 @@
         <v>1993</v>
       </c>
       <c r="F109" s="8">
-        <f>E109-D109</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G109" s="9" t="s">
@@ -5945,7 +5969,7 @@
         <v>2000</v>
       </c>
       <c r="J109" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="K109" s="22" t="s">
@@ -5969,7 +5993,7 @@
         <v>1997</v>
       </c>
       <c r="F110" s="8">
-        <f>E110-D110</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G110" s="37" t="s">
@@ -5982,7 +6006,7 @@
         <v>10000</v>
       </c>
       <c r="J110" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9000</v>
       </c>
       <c r="K110" s="44" t="s">
@@ -6006,7 +6030,7 @@
         <v>1997</v>
       </c>
       <c r="F111" s="8">
-        <f>E111-D111</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G111" s="39" t="s">
@@ -6019,7 +6043,7 @@
         <v>5000</v>
       </c>
       <c r="J111" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5000</v>
       </c>
       <c r="K111" s="23" t="s">
@@ -6043,7 +6067,7 @@
         <v>1999</v>
       </c>
       <c r="F112" s="8">
-        <f>E112-D112</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G112" s="9" t="s">
@@ -6056,7 +6080,7 @@
         <v>13000</v>
       </c>
       <c r="J112" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13000</v>
       </c>
       <c r="K112" s="22" t="s">
@@ -6080,7 +6104,7 @@
         <v>2009</v>
       </c>
       <c r="F113" s="8">
-        <f>E113-D113</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="G113" s="9" t="s">
@@ -6093,7 +6117,7 @@
         <v>70000</v>
       </c>
       <c r="J113" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>62500</v>
       </c>
       <c r="K113" s="22" t="s">
@@ -6118,7 +6142,7 @@
         <v>2006</v>
       </c>
       <c r="F114" s="8">
-        <f>E114-D114</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="G114" s="9" t="s">
@@ -6131,7 +6155,7 @@
         <v>7000</v>
       </c>
       <c r="J114" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7000</v>
       </c>
       <c r="K114" s="22" t="s">
@@ -6156,7 +6180,7 @@
         <v>2001</v>
       </c>
       <c r="F115" s="8">
-        <f>E115-D115</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G115" s="9" t="s">
@@ -6169,7 +6193,7 @@
         <v>10000</v>
       </c>
       <c r="J115" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7500</v>
       </c>
       <c r="K115" s="22" t="s">
@@ -6193,7 +6217,7 @@
         <v>2003</v>
       </c>
       <c r="F116" s="8">
-        <f>E116-D116</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G116" s="10" t="s">
@@ -6206,7 +6230,7 @@
         <v>5000</v>
       </c>
       <c r="J116" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
       <c r="K116" s="23" t="s">
@@ -6230,7 +6254,7 @@
         <v>1999</v>
       </c>
       <c r="F117" s="8">
-        <f>E117-D117</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G117" s="9" t="s">
@@ -6243,7 +6267,7 @@
         <v>10000</v>
       </c>
       <c r="J117" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10000</v>
       </c>
       <c r="K117" s="22" t="s">
@@ -6267,7 +6291,7 @@
         <v>242</v>
       </c>
       <c r="F118" s="8" t="e">
-        <f>E118-D118</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="G118" s="9" t="s">
@@ -6280,7 +6304,7 @@
         <v>100000</v>
       </c>
       <c r="J118" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>100000</v>
       </c>
       <c r="K118" s="22" t="s">
@@ -6304,7 +6328,7 @@
         <v>2003</v>
       </c>
       <c r="F119" s="8">
-        <f>E119-D119</f>
+        <f t="shared" ref="F119:F150" si="8">E119-D119</f>
         <v>4</v>
       </c>
       <c r="G119" s="9" t="s">
@@ -6317,7 +6341,7 @@
         <v>1000</v>
       </c>
       <c r="J119" s="52">
-        <f t="shared" ref="J119:J129" si="4">AVERAGE(H119:I119)</f>
+        <f t="shared" ref="J119:J129" si="9">AVERAGE(H119:I119)</f>
         <v>1000</v>
       </c>
       <c r="K119" s="22" t="s">
@@ -6341,7 +6365,7 @@
         <v>242</v>
       </c>
       <c r="F120" s="8" t="e">
-        <f>E120-D120</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G120" s="9" t="s">
@@ -6354,7 +6378,7 @@
         <v>300000</v>
       </c>
       <c r="J120" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>250000</v>
       </c>
       <c r="K120" s="22" t="s">
@@ -6378,7 +6402,7 @@
         <v>2009</v>
       </c>
       <c r="F121" s="8">
-        <f>E121-D121</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G121" s="9" t="s">
@@ -6391,7 +6415,7 @@
         <v>20000</v>
       </c>
       <c r="J121" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>11500</v>
       </c>
       <c r="K121" s="22" t="s">
@@ -6416,7 +6440,7 @@
         <v>242</v>
       </c>
       <c r="F122" s="38" t="e">
-        <f>E122-D122</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G122" s="37" t="s">
@@ -6429,7 +6453,7 @@
         <v>3000</v>
       </c>
       <c r="J122" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2000</v>
       </c>
       <c r="K122" s="44" t="s">
@@ -6451,7 +6475,7 @@
         <v>2011</v>
       </c>
       <c r="F123" s="8">
-        <f>E123-D123</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G123" s="9" t="s">
@@ -6464,7 +6488,7 @@
         <v>3000</v>
       </c>
       <c r="J123" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2250</v>
       </c>
       <c r="K123" s="22" t="s">
@@ -6488,7 +6512,7 @@
         <v>2011</v>
       </c>
       <c r="F124" s="8">
-        <f>E124-D124</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G124" s="9" t="s">
@@ -6501,7 +6525,7 @@
         <v>2000</v>
       </c>
       <c r="J124" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1300</v>
       </c>
       <c r="K124" s="22" t="s">
@@ -6525,7 +6549,7 @@
         <v>242</v>
       </c>
       <c r="F125" s="8" t="e">
-        <f>E125-D125</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G125" s="9" t="s">
@@ -6538,7 +6562,7 @@
         <v>48000</v>
       </c>
       <c r="J125" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>35250</v>
       </c>
       <c r="K125" s="22" t="s">
@@ -6563,7 +6587,7 @@
         <v>242</v>
       </c>
       <c r="F126" s="8" t="e">
-        <f>E126-D126</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G126" s="9" t="s">
@@ -6576,7 +6600,7 @@
         <v>2000</v>
       </c>
       <c r="J126" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1500</v>
       </c>
       <c r="K126" s="22" t="s">
@@ -6601,7 +6625,7 @@
         <v>242</v>
       </c>
       <c r="F127" s="38" t="e">
-        <f>E127-D127</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G127" s="37" t="s">
@@ -6614,7 +6638,7 @@
         <v>1400</v>
       </c>
       <c r="J127" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1200</v>
       </c>
       <c r="K127" s="44"/>
@@ -6634,7 +6658,7 @@
         <v>242</v>
       </c>
       <c r="F128" s="8" t="e">
-        <f>E128-D128</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G128" s="9" t="s">
@@ -6647,7 +6671,7 @@
         <v>37500</v>
       </c>
       <c r="J128" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>23750</v>
       </c>
       <c r="K128" s="22" t="s">
@@ -6672,7 +6696,7 @@
         <v>242</v>
       </c>
       <c r="F129" s="38" t="e">
-        <f>E129-D129</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G129" s="37" t="s">
@@ -6685,7 +6709,7 @@
         <v>3000</v>
       </c>
       <c r="J129" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2000</v>
       </c>
       <c r="K129" s="44" t="s">
